--- a/MECorpAline.xlsx
+++ b/MECorpAline.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BCAF\69. Maintain Script ME Corp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BCAF\ME Corporate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA9737A-2335-4893-8B49-7F0D94B1AC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1716A885-014C-4826-848A-F8CA86920D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EED5C264-5208-4CBD-B858-4D640CE4569E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5365" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5365" uniqueCount="373">
   <si>
     <t>login_role</t>
   </si>
@@ -1152,6 +1152,9 @@
   </si>
   <si>
     <t>aplikasiBaru_RAD</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
 </sst>
 </file>
@@ -1583,8 +1586,8 @@
   <dimension ref="A1:FO47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G7" sqref="G7"/>
+      <pane xSplit="9" topLeftCell="DX1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DX3" sqref="DX3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2626,7 +2629,7 @@
         <v>161</v>
       </c>
       <c r="DX2" t="s">
-        <v>215</v>
+        <v>372</v>
       </c>
       <c r="DY2" t="s">
         <v>163</v>

--- a/MECorpAline.xlsx
+++ b/MECorpAline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BCAF\ME Corporate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1716A885-014C-4826-848A-F8CA86920D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CD4C82-851B-4689-A125-AEF1949D96AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EED5C264-5208-4CBD-B858-4D640CE4569E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5365" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5478" uniqueCount="380">
   <si>
     <t>login_role</t>
   </si>
@@ -1155,6 +1155,27 @@
   </si>
   <si>
     <t>new</t>
+  </si>
+  <si>
+    <t>CS New Car Non Direct Sales</t>
+  </si>
+  <si>
+    <t>Astra International Tbk</t>
+  </si>
+  <si>
+    <t>DAIHATSU</t>
+  </si>
+  <si>
+    <t>AYLA</t>
+  </si>
+  <si>
+    <t>AYLA 1.0 X A/T</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Astra International TBK, PT</t>
+  </si>
+  <si>
+    <t>TIPE 3 - W1 - CS</t>
   </si>
 </sst>
 </file>
@@ -1583,11 +1604,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A08F41-A520-484F-A624-6B7D720CDEE3}">
-  <dimension ref="A1:FO47"/>
+  <dimension ref="A1:FO48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" topLeftCell="DX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DX3" sqref="DX3"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <pane xSplit="9" topLeftCell="EV1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="EW49" sqref="EW49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1596,7 +1617,7 @@
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
@@ -24730,6 +24751,494 @@
         <v>228</v>
       </c>
     </row>
+    <row r="48" spans="1:171" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>367</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E48" t="s">
+        <v>252</v>
+      </c>
+      <c r="F48" t="s">
+        <v>254</v>
+      </c>
+      <c r="G48" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" t="s">
+        <v>373</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K48" t="s">
+        <v>255</v>
+      </c>
+      <c r="L48">
+        <v>10000000000</v>
+      </c>
+      <c r="M48" t="s">
+        <v>14</v>
+      </c>
+      <c r="N48">
+        <v>1995</v>
+      </c>
+      <c r="O48">
+        <v>10103</v>
+      </c>
+      <c r="P48">
+        <v>413514512</v>
+      </c>
+      <c r="Q48">
+        <v>1213</v>
+      </c>
+      <c r="R48" t="s">
+        <v>20</v>
+      </c>
+      <c r="S48" t="s">
+        <v>230</v>
+      </c>
+      <c r="T48" t="s">
+        <v>231</v>
+      </c>
+      <c r="U48" t="s">
+        <v>232</v>
+      </c>
+      <c r="V48">
+        <v>65145</v>
+      </c>
+      <c r="W48" t="s">
+        <v>26</v>
+      </c>
+      <c r="X48" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y48" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z48">
+        <v>1</v>
+      </c>
+      <c r="AA48">
+        <v>62</v>
+      </c>
+      <c r="AB48">
+        <v>89773662555</v>
+      </c>
+      <c r="AC48">
+        <v>23455</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE48">
+        <v>3345434656</v>
+      </c>
+      <c r="AF48">
+        <v>56643</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK48" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>233</v>
+      </c>
+      <c r="AP48" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>234</v>
+      </c>
+      <c r="AR48" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS48" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT48" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW48" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX48" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY48" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ48" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA48" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB48" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC48">
+        <v>11530</v>
+      </c>
+      <c r="BD48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE48" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF48" t="s">
+        <v>236</v>
+      </c>
+      <c r="BP48" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ48" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR48">
+        <v>15418</v>
+      </c>
+      <c r="BS48" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT48" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU48" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BV48" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW48" t="s">
+        <v>88</v>
+      </c>
+      <c r="BX48" t="s">
+        <v>90</v>
+      </c>
+      <c r="BY48" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ48" t="s">
+        <v>57</v>
+      </c>
+      <c r="CA48" t="s">
+        <v>95</v>
+      </c>
+      <c r="CB48">
+        <v>2343235657</v>
+      </c>
+      <c r="CC48" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD48" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CE48" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF48" t="s">
+        <v>57</v>
+      </c>
+      <c r="CG48" t="s">
+        <v>105</v>
+      </c>
+      <c r="CH48" t="s">
+        <v>107</v>
+      </c>
+      <c r="CI48">
+        <v>15417</v>
+      </c>
+      <c r="CJ48">
+        <v>62</v>
+      </c>
+      <c r="CK48">
+        <v>83873594727</v>
+      </c>
+      <c r="CL48" t="s">
+        <v>112</v>
+      </c>
+      <c r="CM48" t="s">
+        <v>114</v>
+      </c>
+      <c r="CN48" t="s">
+        <v>57</v>
+      </c>
+      <c r="CO48" t="s">
+        <v>57</v>
+      </c>
+      <c r="CP48" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CQ48" t="s">
+        <v>120</v>
+      </c>
+      <c r="CR48" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CS48" t="s">
+        <v>48</v>
+      </c>
+      <c r="CT48" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="CU48" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="CV48" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="CW48" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="CX48" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CY48" s="1">
+        <v>2</v>
+      </c>
+      <c r="CZ48" s="1">
+        <v>1</v>
+      </c>
+      <c r="DA48" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="DB48" t="s">
+        <v>129</v>
+      </c>
+      <c r="DC48" t="s">
+        <v>131</v>
+      </c>
+      <c r="DD48">
+        <v>11111111111</v>
+      </c>
+      <c r="DE48">
+        <v>11111111111</v>
+      </c>
+      <c r="DF48" t="s">
+        <v>135</v>
+      </c>
+      <c r="DG48" t="s">
+        <v>137</v>
+      </c>
+      <c r="DH48" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="DI48">
+        <v>10000000</v>
+      </c>
+      <c r="DJ48">
+        <v>10000000</v>
+      </c>
+      <c r="DK48">
+        <v>10000000</v>
+      </c>
+      <c r="DL48">
+        <v>11111111111</v>
+      </c>
+      <c r="DM48" t="s">
+        <v>145</v>
+      </c>
+      <c r="DN48" t="s">
+        <v>147</v>
+      </c>
+      <c r="DO48">
+        <v>123</v>
+      </c>
+      <c r="DP48" t="s">
+        <v>150</v>
+      </c>
+      <c r="DQ48" t="s">
+        <v>57</v>
+      </c>
+      <c r="DR48" t="s">
+        <v>153</v>
+      </c>
+      <c r="DS48">
+        <v>11111111111</v>
+      </c>
+      <c r="DT48" t="s">
+        <v>156</v>
+      </c>
+      <c r="DU48" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="DV48" t="s">
+        <v>374</v>
+      </c>
+      <c r="DW48" t="s">
+        <v>378</v>
+      </c>
+      <c r="DX48" t="s">
+        <v>372</v>
+      </c>
+      <c r="DY48" t="s">
+        <v>163</v>
+      </c>
+      <c r="DZ48" t="s">
+        <v>375</v>
+      </c>
+      <c r="EA48" t="s">
+        <v>376</v>
+      </c>
+      <c r="EB48" t="s">
+        <v>377</v>
+      </c>
+      <c r="EC48" t="s">
+        <v>366</v>
+      </c>
+      <c r="ED48" t="s">
+        <v>172</v>
+      </c>
+      <c r="EE48">
+        <v>2020</v>
+      </c>
+      <c r="EF48" t="s">
+        <v>175</v>
+      </c>
+      <c r="EG48">
+        <v>1111111111</v>
+      </c>
+      <c r="EH48">
+        <v>1111111111</v>
+      </c>
+      <c r="EI48" t="s">
+        <v>179</v>
+      </c>
+      <c r="EJ48">
+        <v>1111111111</v>
+      </c>
+      <c r="EK48" t="s">
+        <v>182</v>
+      </c>
+      <c r="EL48" t="s">
+        <v>184</v>
+      </c>
+      <c r="EM48" t="s">
+        <v>186</v>
+      </c>
+      <c r="EN48">
+        <v>550000000</v>
+      </c>
+      <c r="EO48">
+        <v>55000000</v>
+      </c>
+      <c r="EP48">
+        <v>10</v>
+      </c>
+      <c r="EQ48">
+        <v>12</v>
+      </c>
+      <c r="ER48">
+        <v>6</v>
+      </c>
+      <c r="ES48">
+        <v>6</v>
+      </c>
+      <c r="ET48">
+        <v>0.5</v>
+      </c>
+      <c r="EU48">
+        <v>100000</v>
+      </c>
+      <c r="EV48" t="s">
+        <v>196</v>
+      </c>
+      <c r="EW48" t="s">
+        <v>379</v>
+      </c>
+      <c r="EX48" t="s">
+        <v>200</v>
+      </c>
+      <c r="EY48" t="s">
+        <v>202</v>
+      </c>
+      <c r="EZ48" t="s">
+        <v>204</v>
+      </c>
+      <c r="FA48" t="s">
+        <v>206</v>
+      </c>
+      <c r="FB48">
+        <v>0</v>
+      </c>
+      <c r="FC48" t="s">
+        <v>209</v>
+      </c>
+      <c r="FD48">
+        <v>0</v>
+      </c>
+      <c r="FE48" t="s">
+        <v>212</v>
+      </c>
+      <c r="FF48">
+        <v>0</v>
+      </c>
+      <c r="FG48">
+        <v>1</v>
+      </c>
+      <c r="FH48">
+        <v>1000000</v>
+      </c>
+      <c r="FI48">
+        <v>100000</v>
+      </c>
+      <c r="FJ48">
+        <v>10</v>
+      </c>
+      <c r="FK48" t="s">
+        <v>221</v>
+      </c>
+      <c r="FL48" t="s">
+        <v>223</v>
+      </c>
+      <c r="FM48" t="s">
+        <v>225</v>
+      </c>
+      <c r="FN48">
+        <v>12</v>
+      </c>
+      <c r="FO48" t="s">
+        <v>228</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -24748,6 +25257,7 @@
     <hyperlink ref="Y14" r:id="rId13" xr:uid="{7DE71E7C-C164-43F0-9B4B-F85B3151C90B}"/>
     <hyperlink ref="Y46" r:id="rId14" xr:uid="{115CC30D-661D-470E-8B2A-2D8B37D36409}"/>
     <hyperlink ref="Y47" r:id="rId15" xr:uid="{789BE2AD-F858-4895-AD48-B9B761885893}"/>
+    <hyperlink ref="Y48" r:id="rId16" xr:uid="{A88E47C3-A0CB-4F1E-BF37-CE58065E8518}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MECorpAline.xlsx
+++ b/MECorpAline.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BCAF\ME Corporate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ME-Corporate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CD4C82-851B-4689-A125-AEF1949D96AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25294F14-8D1A-4D8C-903C-F91A360FCBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EED5C264-5208-4CBD-B858-4D640CE4569E}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="34995" windowHeight="19060" xr2:uid="{EED5C264-5208-4CBD-B858-4D640CE4569E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5478" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6947" uniqueCount="387">
   <si>
     <t>login_role</t>
   </si>
@@ -1176,6 +1174,27 @@
   </si>
   <si>
     <t>TIPE 3 - W1 - CS</t>
+  </si>
+  <si>
+    <t>54 ME CORP</t>
+  </si>
+  <si>
+    <t>53 ME CORP</t>
+  </si>
+  <si>
+    <t>55 ME CORP</t>
+  </si>
+  <si>
+    <t>56 ME CORP</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>ALL NEW</t>
+  </si>
+  <si>
+    <t>9728934761429677</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1264,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1268,20 +1287,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1289,9 +1315,17 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipertaut" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1308,9 +1342,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1348,7 +1382,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1454,7 +1488,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1596,7 +1630,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1604,182 +1638,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A08F41-A520-484F-A624-6B7D720CDEE3}">
-  <dimension ref="A1:FO48"/>
+  <dimension ref="A1:FO61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <pane xSplit="9" topLeftCell="EV1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="EW49" sqref="EW49"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <pane xSplit="9" topLeftCell="DY1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.109375" customWidth="1"/>
-    <col min="14" max="14" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.125" customWidth="1"/>
+    <col min="14" max="14" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="12" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.5" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="14" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="20.75" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="22" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="29.33203125" customWidth="1"/>
-    <col min="68" max="68" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="30.25" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="29.375" customWidth="1"/>
+    <col min="68" max="68" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="19.5" bestFit="1" customWidth="1"/>
     <col min="76" max="76" width="18" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="20.5" bestFit="1" customWidth="1"/>
     <col min="100" max="100" width="24" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="17.6640625" customWidth="1"/>
-    <col min="106" max="106" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="16.88671875" customWidth="1"/>
-    <col min="108" max="108" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="29.21875" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="23.5546875" customWidth="1"/>
-    <col min="124" max="124" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="17.625" customWidth="1"/>
+    <col min="106" max="106" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="16.875" customWidth="1"/>
+    <col min="108" max="108" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="23.5" customWidth="1"/>
+    <col min="124" max="124" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="14.875" bestFit="1" customWidth="1"/>
     <col min="126" max="126" width="14" bestFit="1" customWidth="1"/>
     <col min="127" max="127" width="52" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="56.77734375" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="56.75" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="15.5" bestFit="1" customWidth="1"/>
     <col min="133" max="133" width="17" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="19.5" bestFit="1" customWidth="1"/>
     <col min="141" max="141" width="16" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="143" max="144" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="143" max="144" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="24.125" bestFit="1" customWidth="1"/>
     <col min="149" max="149" width="22" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="24.25" bestFit="1" customWidth="1"/>
     <col min="160" max="160" width="24" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>229</v>
       </c>
@@ -2294,7 +2329,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>14</v>
       </c>
@@ -2782,7 +2817,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>15</v>
       </c>
@@ -3270,7 +3305,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>16</v>
       </c>
@@ -3758,7 +3793,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>17</v>
       </c>
@@ -4246,7 +4281,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>18</v>
       </c>
@@ -4734,7 +4769,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>19</v>
       </c>
@@ -5222,7 +5257,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>20</v>
       </c>
@@ -5710,7 +5745,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>21</v>
       </c>
@@ -6198,7 +6233,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>22</v>
       </c>
@@ -6686,7 +6721,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>23</v>
       </c>
@@ -7174,7 +7209,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>24</v>
       </c>
@@ -7662,7 +7697,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>25</v>
       </c>
@@ -8150,495 +8185,495 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:171" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:171" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>26</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="11">
         <v>10000000000</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="11">
         <v>1995</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="11">
         <v>10103</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14" s="11">
         <v>413514512</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="Q14" s="11">
         <v>1213</v>
       </c>
-      <c r="R14" s="5" t="s">
+      <c r="R14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="S14" s="5" t="s">
+      <c r="S14" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="T14" s="5" t="s">
+      <c r="T14" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="U14" s="5" t="s">
+      <c r="U14" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="V14" s="5">
+      <c r="V14" s="11">
         <v>65145</v>
       </c>
-      <c r="W14" s="5" t="s">
+      <c r="W14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="X14" s="5" t="s">
+      <c r="X14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Y14" s="7" t="s">
+      <c r="Y14" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="Z14" s="5">
+      <c r="Z14" s="11">
         <v>1</v>
       </c>
-      <c r="AA14" s="5">
+      <c r="AA14" s="11">
         <v>62</v>
       </c>
-      <c r="AB14" s="5">
+      <c r="AB14" s="11">
         <v>89773662555</v>
       </c>
-      <c r="AC14" s="5">
+      <c r="AC14" s="11">
         <v>23455</v>
       </c>
-      <c r="AD14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE14" s="5">
+      <c r="AD14" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE14" s="11">
         <v>3345434656</v>
       </c>
-      <c r="AF14" s="5">
+      <c r="AF14" s="11">
         <v>56643</v>
       </c>
-      <c r="AG14" s="5" t="s">
+      <c r="AG14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AH14" s="5" t="s">
+      <c r="AH14" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AI14" s="5" t="s">
+      <c r="AI14" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="AJ14" s="6" t="s">
+      <c r="AJ14" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AK14" s="6" t="s">
+      <c r="AK14" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="AL14" s="5" t="s">
+      <c r="AL14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AM14" s="5" t="s">
+      <c r="AM14" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AN14" s="5" t="s">
+      <c r="AN14" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AO14" s="5" t="s">
+      <c r="AO14" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="AP14" s="5" t="s">
+      <c r="AP14" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AQ14" s="5" t="s">
+      <c r="AQ14" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="AR14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS14" s="5" t="s">
+      <c r="AR14" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS14" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AT14" s="5" t="s">
+      <c r="AT14" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AU14" s="6" t="s">
+      <c r="AU14" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AV14" s="6" t="s">
+      <c r="AV14" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AW14" s="5" t="s">
+      <c r="AW14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AX14" s="5" t="s">
+      <c r="AX14" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AY14" s="5" t="s">
+      <c r="AY14" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AZ14" s="5" t="s">
+      <c r="AZ14" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="BA14" s="5" t="s">
+      <c r="BA14" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="BB14" s="5" t="s">
+      <c r="BB14" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="BC14" s="5">
+      <c r="BC14" s="11">
         <v>11530</v>
       </c>
-      <c r="BD14" s="6" t="s">
+      <c r="BD14" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="BE14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="BF14" s="5" t="s">
+      <c r="BE14" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF14" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="BP14" s="5" t="s">
+      <c r="BP14" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="BQ14" s="5" t="s">
+      <c r="BQ14" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="BR14" s="5">
+      <c r="BR14" s="11">
         <v>15418</v>
       </c>
-      <c r="BS14" s="5" t="s">
+      <c r="BS14" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="BT14" s="5" t="s">
+      <c r="BT14" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="BU14" s="6" t="s">
+      <c r="BU14" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="BV14" s="5" t="s">
+      <c r="BV14" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="BW14" s="5" t="s">
+      <c r="BW14" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="BX14" s="5" t="s">
+      <c r="BX14" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="BY14" s="5" t="s">
+      <c r="BY14" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="BZ14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="CA14" s="5" t="s">
+      <c r="BZ14" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="CA14" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="CB14" s="5">
+      <c r="CB14" s="11">
         <v>2343235657</v>
       </c>
-      <c r="CC14" s="5" t="s">
+      <c r="CC14" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="CD14" s="6" t="s">
+      <c r="CD14" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="CE14" s="6" t="s">
+      <c r="CE14" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="CF14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="CG14" s="5" t="s">
+      <c r="CF14" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="CG14" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="CH14" s="5" t="s">
+      <c r="CH14" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="CI14" s="5">
+      <c r="CI14" s="11">
         <v>15417</v>
       </c>
-      <c r="CJ14" s="5">
+      <c r="CJ14" s="11">
         <v>62</v>
       </c>
-      <c r="CK14" s="5">
+      <c r="CK14" s="11">
         <v>83873594727</v>
       </c>
-      <c r="CL14" s="5" t="s">
+      <c r="CL14" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="CM14" s="5" t="s">
+      <c r="CM14" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="CN14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="CO14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="CP14" s="6" t="s">
+      <c r="CN14" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="CO14" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="CP14" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="CQ14" s="5" t="s">
+      <c r="CQ14" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="CR14" s="6" t="s">
+      <c r="CR14" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="CS14" s="5" t="s">
+      <c r="CS14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="CT14" s="6" t="s">
+      <c r="CT14" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="CU14" s="6" t="s">
+      <c r="CU14" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="CV14" s="6" t="s">
+      <c r="CV14" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="CW14" s="6" t="s">
+      <c r="CW14" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="CX14" s="6" t="s">
+      <c r="CX14" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="CY14" s="6">
+      <c r="CY14" s="12">
         <v>2</v>
       </c>
-      <c r="CZ14" s="6">
+      <c r="CZ14" s="12">
         <v>1</v>
       </c>
-      <c r="DA14" s="1" t="s">
+      <c r="DA14" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="DB14" s="5" t="s">
+      <c r="DB14" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="DC14" s="5" t="s">
+      <c r="DC14" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="DD14" s="5">
+      <c r="DD14" s="11">
         <v>11111111111</v>
       </c>
-      <c r="DE14" s="5">
+      <c r="DE14" s="11">
         <v>11111111111</v>
       </c>
-      <c r="DF14" s="5" t="s">
+      <c r="DF14" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="DG14" s="5" t="s">
+      <c r="DG14" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="DH14" s="6" t="s">
+      <c r="DH14" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="DI14" s="5">
+      <c r="DI14" s="11">
         <v>10000000</v>
       </c>
-      <c r="DJ14" s="5">
+      <c r="DJ14" s="11">
         <v>10000000</v>
       </c>
-      <c r="DK14" s="5">
+      <c r="DK14" s="11">
         <v>10000000</v>
       </c>
-      <c r="DL14" s="5">
+      <c r="DL14" s="11">
         <v>11111111111</v>
       </c>
-      <c r="DM14" s="5" t="s">
+      <c r="DM14" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="DN14" s="5" t="s">
+      <c r="DN14" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="DO14" s="5">
+      <c r="DO14" s="11">
         <v>123</v>
       </c>
-      <c r="DP14" s="5" t="s">
+      <c r="DP14" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="DQ14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="DR14" s="5" t="s">
+      <c r="DQ14" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="DR14" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="DS14" s="5">
+      <c r="DS14" s="11">
         <v>11111111111</v>
       </c>
-      <c r="DT14" s="5" t="s">
+      <c r="DT14" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="DU14" s="6" t="s">
+      <c r="DU14" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="DV14" s="5" t="s">
+      <c r="DV14" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="DW14" s="5" t="s">
+      <c r="DW14" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="DX14" s="5" t="s">
+      <c r="DX14" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="DY14" s="5" t="s">
+      <c r="DY14" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="DZ14" s="5" t="s">
+      <c r="DZ14" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="EA14" s="5" t="s">
+      <c r="EA14" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="EB14" s="5" t="s">
+      <c r="EB14" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="EC14" t="s">
+      <c r="EC14" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="ED14" s="5" t="s">
+      <c r="ED14" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="EE14" s="5">
+      <c r="EE14" s="11">
         <v>2020</v>
       </c>
-      <c r="EF14" s="5" t="s">
+      <c r="EF14" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="EG14" s="5">
+      <c r="EG14" s="11">
         <v>1111111111</v>
       </c>
-      <c r="EH14" s="5">
+      <c r="EH14" s="11">
         <v>1111111111</v>
       </c>
-      <c r="EI14" s="5" t="s">
+      <c r="EI14" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="EJ14" s="5">
+      <c r="EJ14" s="11">
         <v>1111111111</v>
       </c>
-      <c r="EK14" s="5" t="s">
+      <c r="EK14" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="EL14" s="5" t="s">
+      <c r="EL14" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="EM14" s="5" t="s">
+      <c r="EM14" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="EN14" s="5">
+      <c r="EN14" s="11">
         <v>550000000</v>
       </c>
-      <c r="EO14" s="5">
+      <c r="EO14" s="11">
         <v>55000000</v>
       </c>
-      <c r="EP14" s="5">
+      <c r="EP14" s="11">
         <v>10</v>
       </c>
-      <c r="EQ14" s="5">
+      <c r="EQ14" s="11">
         <v>12</v>
       </c>
-      <c r="ER14" s="5">
+      <c r="ER14" s="11">
         <v>6</v>
       </c>
-      <c r="ES14" s="5">
+      <c r="ES14" s="11">
         <v>6</v>
       </c>
-      <c r="ET14" s="5">
+      <c r="ET14" s="11">
         <v>0.5</v>
       </c>
-      <c r="EU14" s="5">
+      <c r="EU14" s="11">
         <v>100000</v>
       </c>
-      <c r="EV14" s="5" t="s">
+      <c r="EV14" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="EW14" s="5" t="s">
+      <c r="EW14" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="EX14" s="5" t="s">
+      <c r="EX14" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="EY14" s="5" t="s">
+      <c r="EY14" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="EZ14" s="5" t="s">
+      <c r="EZ14" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="FA14" s="5" t="s">
+      <c r="FA14" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="FB14" s="5">
+      <c r="FB14" s="11">
         <v>0</v>
       </c>
-      <c r="FC14" s="5" t="s">
+      <c r="FC14" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="FD14" s="5">
+      <c r="FD14" s="11">
         <v>0</v>
       </c>
-      <c r="FE14" s="5" t="s">
+      <c r="FE14" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="FF14" s="5">
+      <c r="FF14" s="11">
         <v>0</v>
       </c>
-      <c r="FG14" s="5">
+      <c r="FG14" s="11">
         <v>1</v>
       </c>
-      <c r="FH14" s="5">
+      <c r="FH14" s="11">
         <v>1000000</v>
       </c>
-      <c r="FI14" s="5">
+      <c r="FI14" s="11">
         <v>100000</v>
       </c>
-      <c r="FJ14" s="5">
+      <c r="FJ14" s="11">
         <v>10</v>
       </c>
-      <c r="FK14" s="5" t="s">
+      <c r="FK14" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="FL14" s="5" t="s">
+      <c r="FL14" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="FM14" s="5" t="s">
+      <c r="FM14" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="FN14" s="5">
+      <c r="FN14" s="11">
         <v>12</v>
       </c>
-      <c r="FO14" s="5" t="s">
+      <c r="FO14" s="11" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>27</v>
       </c>
@@ -9126,7 +9161,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>28</v>
       </c>
@@ -9614,7 +9649,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>29</v>
       </c>
@@ -10102,7 +10137,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>30</v>
       </c>
@@ -10590,7 +10625,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>31</v>
       </c>
@@ -11078,7 +11113,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>32</v>
       </c>
@@ -11566,7 +11601,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="21" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>33</v>
       </c>
@@ -12054,7 +12089,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>34</v>
       </c>
@@ -12542,7 +12577,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>35</v>
       </c>
@@ -13030,7 +13065,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>36</v>
       </c>
@@ -13518,7 +13553,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="25" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>37</v>
       </c>
@@ -14006,7 +14041,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="26" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>38</v>
       </c>
@@ -14494,7 +14529,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>39</v>
       </c>
@@ -14982,7 +15017,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>66</v>
       </c>
@@ -15470,7 +15505,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="29" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>67</v>
       </c>
@@ -15958,7 +15993,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="30" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>68</v>
       </c>
@@ -16446,7 +16481,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="31" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>69</v>
       </c>
@@ -16934,7 +16969,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>70</v>
       </c>
@@ -17422,7 +17457,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="33" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>71</v>
       </c>
@@ -17910,7 +17945,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>72</v>
       </c>
@@ -18398,7 +18433,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="35" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>73</v>
       </c>
@@ -18886,7 +18921,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="36" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>74</v>
       </c>
@@ -19374,7 +19409,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="37" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>75</v>
       </c>
@@ -19862,7 +19897,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="38" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>60</v>
       </c>
@@ -20350,7 +20385,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>61</v>
       </c>
@@ -20838,7 +20873,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="40" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>62</v>
       </c>
@@ -21326,7 +21361,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="41" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>63</v>
       </c>
@@ -21814,7 +21849,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="42" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>64</v>
       </c>
@@ -22302,7 +22337,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="43" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>65</v>
       </c>
@@ -22790,7 +22825,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:171" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>58</v>
       </c>
@@ -23278,7 +23313,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="45" spans="1:171" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:171" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>59</v>
       </c>
@@ -23766,505 +23801,505 @@
         <v>228</v>
       </c>
     </row>
-    <row r="46" spans="1:171" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="8">
-        <v>57</v>
-      </c>
-      <c r="B46" s="9" t="s">
+    <row r="46" spans="1:171" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
+        <v>57</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C46" t="s">
         <v>363</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H46" t="s">
         <v>7</v>
       </c>
-      <c r="I46" s="9" t="s">
+      <c r="I46" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="J46" s="11" t="s">
+      <c r="J46" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K46" s="9" t="s">
+      <c r="K46" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="L46" s="9">
+      <c r="L46" s="7">
         <v>10000000000</v>
       </c>
-      <c r="M46" s="9" t="s">
+      <c r="M46" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N46" s="9">
+      <c r="N46" s="7">
         <v>1995</v>
       </c>
-      <c r="O46" s="9">
+      <c r="O46" s="7">
         <v>10103</v>
       </c>
-      <c r="P46" s="9">
+      <c r="P46" s="7">
         <v>413514512</v>
       </c>
-      <c r="Q46" s="9">
+      <c r="Q46" s="7">
         <v>1213</v>
       </c>
-      <c r="R46" s="9" t="s">
+      <c r="R46" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="S46" s="9" t="s">
+      <c r="S46" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="T46" s="9" t="s">
+      <c r="T46" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="U46" s="9" t="s">
+      <c r="U46" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="V46" s="9">
+      <c r="V46" s="7">
         <v>65145</v>
       </c>
-      <c r="W46" s="9" t="s">
+      <c r="W46" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="X46" s="9" t="s">
+      <c r="X46" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Y46" s="12" t="s">
+      <c r="Y46" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="Z46" s="9">
+      <c r="Z46" s="7">
         <v>1</v>
       </c>
-      <c r="AA46" s="9">
+      <c r="AA46" s="7">
         <v>62</v>
       </c>
-      <c r="AB46" s="9">
+      <c r="AB46" s="7">
         <v>89773662555</v>
       </c>
-      <c r="AC46" s="9">
+      <c r="AC46" s="7">
         <v>23455</v>
       </c>
-      <c r="AD46" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE46" s="9">
+      <c r="AD46" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE46" s="7">
         <v>3345434656</v>
       </c>
-      <c r="AF46" s="9">
+      <c r="AF46" s="7">
         <v>56643</v>
       </c>
-      <c r="AG46" s="9" t="s">
+      <c r="AG46" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AH46" s="9" t="s">
+      <c r="AH46" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AI46" s="9" t="s">
+      <c r="AI46" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="AJ46" s="11" t="s">
+      <c r="AJ46" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AK46" s="11" t="s">
+      <c r="AK46" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="AL46" s="9" t="s">
+      <c r="AL46" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AM46" s="9" t="s">
+      <c r="AM46" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AN46" s="9" t="s">
+      <c r="AN46" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AO46" s="9" t="s">
+      <c r="AO46" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="AP46" s="9" t="s">
+      <c r="AP46" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AQ46" s="9" t="s">
+      <c r="AQ46" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="AR46" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS46" s="9" t="s">
+      <c r="AR46" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS46" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AT46" s="9" t="s">
+      <c r="AT46" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AU46" s="11" t="s">
+      <c r="AU46" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AV46" s="11" t="s">
+      <c r="AV46" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AW46" s="9" t="s">
+      <c r="AW46" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AX46" s="9" t="s">
+      <c r="AX46" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AY46" s="9" t="s">
+      <c r="AY46" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AZ46" s="9" t="s">
+      <c r="AZ46" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="BA46" s="9" t="s">
+      <c r="BA46" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="BB46" s="9" t="s">
+      <c r="BB46" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="BC46" s="9">
+      <c r="BC46" s="7">
         <v>11530</v>
       </c>
-      <c r="BD46" s="11" t="s">
+      <c r="BD46" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="BE46" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="BF46" s="9" t="s">
+      <c r="BE46" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF46" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="BG46" s="9"/>
-      <c r="BH46" s="9"/>
-      <c r="BI46" s="9"/>
-      <c r="BJ46" s="9"/>
-      <c r="BK46" s="9"/>
-      <c r="BL46" s="9"/>
-      <c r="BM46" s="9"/>
-      <c r="BN46" s="9"/>
-      <c r="BO46" s="9"/>
-      <c r="BP46" s="9" t="s">
+      <c r="BG46" s="7"/>
+      <c r="BH46" s="7"/>
+      <c r="BI46" s="7"/>
+      <c r="BJ46" s="7"/>
+      <c r="BK46" s="7"/>
+      <c r="BL46" s="7"/>
+      <c r="BM46" s="7"/>
+      <c r="BN46" s="7"/>
+      <c r="BO46" s="7"/>
+      <c r="BP46" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="BQ46" s="9" t="s">
+      <c r="BQ46" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="BR46" s="9">
+      <c r="BR46" s="7">
         <v>15418</v>
       </c>
-      <c r="BS46" s="9" t="s">
+      <c r="BS46" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="BT46" s="9" t="s">
+      <c r="BT46" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="BU46" s="11" t="s">
+      <c r="BU46" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="BV46" s="9" t="s">
+      <c r="BV46" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="BW46" s="9" t="s">
+      <c r="BW46" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="BX46" s="9" t="s">
+      <c r="BX46" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="BY46" s="9" t="s">
+      <c r="BY46" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="BZ46" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="CA46" s="9" t="s">
+      <c r="BZ46" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="CA46" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="CB46" s="9">
+      <c r="CB46" s="7">
         <v>2343235657</v>
       </c>
-      <c r="CC46" s="9" t="s">
+      <c r="CC46" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="CD46" s="11" t="s">
+      <c r="CD46" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="CE46" s="11" t="s">
+      <c r="CE46" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="CF46" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="CG46" s="9" t="s">
+      <c r="CF46" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="CG46" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="CH46" s="9" t="s">
+      <c r="CH46" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="CI46" s="9">
+      <c r="CI46" s="7">
         <v>15417</v>
       </c>
-      <c r="CJ46" s="9">
+      <c r="CJ46" s="7">
         <v>62</v>
       </c>
-      <c r="CK46" s="9">
+      <c r="CK46" s="7">
         <v>83873594727</v>
       </c>
-      <c r="CL46" s="9" t="s">
+      <c r="CL46" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="CM46" s="9" t="s">
+      <c r="CM46" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="CN46" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="CO46" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="CP46" s="11" t="s">
+      <c r="CN46" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="CO46" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="CP46" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="CQ46" s="9" t="s">
+      <c r="CQ46" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="CR46" s="11" t="s">
+      <c r="CR46" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="CS46" s="9" t="s">
+      <c r="CS46" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="CT46" s="11" t="s">
+      <c r="CT46" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="CU46" s="11" t="s">
+      <c r="CU46" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="CV46" s="11" t="s">
+      <c r="CV46" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="CW46" s="11" t="s">
+      <c r="CW46" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="CX46" s="11" t="s">
+      <c r="CX46" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="CY46" s="11">
+      <c r="CY46" s="9">
         <v>2</v>
       </c>
-      <c r="CZ46" s="11">
+      <c r="CZ46" s="9">
         <v>1</v>
       </c>
       <c r="DA46" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="DB46" s="9" t="s">
+      <c r="DB46" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="DC46" s="9" t="s">
+      <c r="DC46" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="DD46" s="9">
+      <c r="DD46" s="7">
         <v>11111111111</v>
       </c>
-      <c r="DE46" s="9">
+      <c r="DE46" s="7">
         <v>11111111111</v>
       </c>
-      <c r="DF46" s="9" t="s">
+      <c r="DF46" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="DG46" s="9" t="s">
+      <c r="DG46" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="DH46" s="11" t="s">
+      <c r="DH46" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="DI46" s="9">
+      <c r="DI46" s="7">
         <v>10000000</v>
       </c>
-      <c r="DJ46" s="9">
+      <c r="DJ46" s="7">
         <v>10000000</v>
       </c>
-      <c r="DK46" s="9">
+      <c r="DK46" s="7">
         <v>10000000</v>
       </c>
-      <c r="DL46" s="9">
+      <c r="DL46" s="7">
         <v>11111111111</v>
       </c>
-      <c r="DM46" s="9" t="s">
+      <c r="DM46" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="DN46" s="9" t="s">
+      <c r="DN46" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="DO46" s="9">
+      <c r="DO46" s="7">
         <v>123</v>
       </c>
-      <c r="DP46" s="9" t="s">
+      <c r="DP46" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="DQ46" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="DR46" s="9" t="s">
+      <c r="DQ46" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="DR46" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="DS46" s="9">
+      <c r="DS46" s="7">
         <v>11111111111</v>
       </c>
-      <c r="DT46" s="9" t="s">
+      <c r="DT46" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="DU46" s="11" t="s">
+      <c r="DU46" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="DV46" s="9" t="s">
+      <c r="DV46" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="DW46" s="9" t="s">
+      <c r="DW46" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="DX46" s="9" t="s">
+      <c r="DX46" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="DY46" s="9" t="s">
+      <c r="DY46" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="DZ46" s="9" t="s">
+      <c r="DZ46" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="EA46" s="9" t="s">
+      <c r="EA46" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="EB46" s="9" t="s">
+      <c r="EB46" s="7" t="s">
         <v>169</v>
       </c>
       <c r="EC46" t="s">
         <v>366</v>
       </c>
-      <c r="ED46" s="9" t="s">
+      <c r="ED46" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="EE46" s="9">
+      <c r="EE46" s="7">
         <v>2020</v>
       </c>
-      <c r="EF46" s="9" t="s">
+      <c r="EF46" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="EG46" s="9">
+      <c r="EG46" s="7">
         <v>1111111111</v>
       </c>
-      <c r="EH46" s="9">
+      <c r="EH46" s="7">
         <v>1111111111</v>
       </c>
-      <c r="EI46" s="9" t="s">
+      <c r="EI46" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="EJ46" s="9">
+      <c r="EJ46" s="7">
         <v>1111111111</v>
       </c>
-      <c r="EK46" s="9" t="s">
+      <c r="EK46" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="EL46" s="9" t="s">
+      <c r="EL46" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="EM46" s="9" t="s">
+      <c r="EM46" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="EN46" s="9">
+      <c r="EN46" s="7">
         <v>550000000</v>
       </c>
-      <c r="EO46" s="9">
+      <c r="EO46" s="7">
         <v>55000000</v>
       </c>
-      <c r="EP46" s="9">
+      <c r="EP46" s="7">
         <v>10</v>
       </c>
-      <c r="EQ46" s="9">
+      <c r="EQ46" s="7">
         <v>12</v>
       </c>
-      <c r="ER46" s="9">
+      <c r="ER46" s="7">
         <v>6</v>
       </c>
-      <c r="ES46" s="9">
+      <c r="ES46" s="7">
         <v>6</v>
       </c>
-      <c r="ET46" s="9">
+      <c r="ET46" s="7">
         <v>0.5</v>
       </c>
-      <c r="EU46" s="9">
+      <c r="EU46" s="7">
         <v>100000</v>
       </c>
-      <c r="EV46" s="9" t="s">
+      <c r="EV46" s="7" t="s">
         <v>196</v>
       </c>
       <c r="EW46" t="s">
         <v>198</v>
       </c>
-      <c r="EX46" s="9" t="s">
+      <c r="EX46" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="EY46" s="9" t="s">
+      <c r="EY46" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="EZ46" s="9" t="s">
+      <c r="EZ46" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="FA46" s="9" t="s">
+      <c r="FA46" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="FB46" s="9">
+      <c r="FB46" s="7">
         <v>0</v>
       </c>
-      <c r="FC46" s="9" t="s">
+      <c r="FC46" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="FD46" s="9">
+      <c r="FD46" s="7">
         <v>0</v>
       </c>
-      <c r="FE46" s="9" t="s">
+      <c r="FE46" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="FF46" s="9">
+      <c r="FF46" s="7">
         <v>0</v>
       </c>
-      <c r="FG46" s="9">
+      <c r="FG46" s="7">
         <v>1</v>
       </c>
-      <c r="FH46" s="9">
+      <c r="FH46" s="7">
         <v>1000000</v>
       </c>
-      <c r="FI46" s="9">
+      <c r="FI46" s="7">
         <v>100000</v>
       </c>
-      <c r="FJ46" s="9">
+      <c r="FJ46" s="7">
         <v>10</v>
       </c>
-      <c r="FK46" s="9" t="s">
+      <c r="FK46" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="FL46" s="9" t="s">
+      <c r="FL46" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="FM46" s="9" t="s">
+      <c r="FM46" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="FN46" s="9">
+      <c r="FN46" s="7">
         <v>12</v>
       </c>
-      <c r="FO46" s="9" t="s">
+      <c r="FO46" s="7" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="47" spans="1:171" x14ac:dyDescent="0.3">
-      <c r="A47" s="5">
+    <row r="47" spans="1:171" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
         <v>1</v>
       </c>
       <c r="B47" t="s">
@@ -24751,8 +24786,8 @@
         <v>228</v>
       </c>
     </row>
-    <row r="48" spans="1:171" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
+    <row r="48" spans="1:171" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
         <v>2</v>
       </c>
       <c r="B48" t="s">
@@ -25236,6 +25271,6350 @@
         <v>12</v>
       </c>
       <c r="FO48" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="49" spans="1:171" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14">
+        <v>53</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="J49" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K49" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="L49" s="15">
+        <v>10000000000</v>
+      </c>
+      <c r="M49" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N49" s="15">
+        <v>1995</v>
+      </c>
+      <c r="O49" s="15">
+        <v>10103</v>
+      </c>
+      <c r="P49" s="15">
+        <v>413514512</v>
+      </c>
+      <c r="Q49" s="15">
+        <v>1213</v>
+      </c>
+      <c r="R49" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="S49" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="T49" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="U49" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="V49" s="15">
+        <v>65145</v>
+      </c>
+      <c r="W49" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="X49" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y49" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z49" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="15">
+        <v>62</v>
+      </c>
+      <c r="AB49" s="15">
+        <v>89773662555</v>
+      </c>
+      <c r="AC49" s="15">
+        <v>23455</v>
+      </c>
+      <c r="AD49" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE49" s="15">
+        <v>3345434656</v>
+      </c>
+      <c r="AF49" s="15">
+        <v>56643</v>
+      </c>
+      <c r="AG49" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH49" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI49" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ49" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK49" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="AL49" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM49" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN49" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO49" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="AP49" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ49" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="AR49" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS49" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT49" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU49" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV49" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW49" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX49" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY49" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ49" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA49" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB49" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC49" s="15">
+        <v>11530</v>
+      </c>
+      <c r="BD49" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE49" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF49" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="BP49" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ49" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR49" s="15">
+        <v>15418</v>
+      </c>
+      <c r="BS49" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT49" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU49" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BV49" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW49" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="BX49" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="BY49" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ49" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="CA49" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="CB49" s="15">
+        <v>2343235657</v>
+      </c>
+      <c r="CC49" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD49" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="CE49" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF49" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="CG49" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CH49" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="CI49" s="15">
+        <v>15417</v>
+      </c>
+      <c r="CJ49" s="15">
+        <v>62</v>
+      </c>
+      <c r="CK49" s="15">
+        <v>83873594727</v>
+      </c>
+      <c r="CL49" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="CM49" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="CN49" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="CO49" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="CP49" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="CQ49" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="CR49" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="CS49" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="CT49" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="CU49" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="CV49" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="CW49" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="CX49" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="CY49" s="16">
+        <v>2</v>
+      </c>
+      <c r="CZ49" s="16">
+        <v>1</v>
+      </c>
+      <c r="DA49" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="DB49" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="DC49" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="DD49" s="15">
+        <v>11111111111</v>
+      </c>
+      <c r="DE49" s="15">
+        <v>11111111111</v>
+      </c>
+      <c r="DF49" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="DG49" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="DH49" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="DI49" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="DJ49" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="DK49" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="DL49" s="15">
+        <v>11111111111</v>
+      </c>
+      <c r="DM49" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="DN49" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="DO49" s="15">
+        <v>123</v>
+      </c>
+      <c r="DP49" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="DQ49" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="DR49" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="DS49" s="15">
+        <v>11111111111</v>
+      </c>
+      <c r="DT49" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="DU49" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="DV49" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="DW49" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="DX49" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="DY49" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DZ49" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="EA49" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="EB49" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="EC49" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="ED49" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="EE49" s="15">
+        <v>2020</v>
+      </c>
+      <c r="EF49" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="EG49" s="15">
+        <v>1111111111</v>
+      </c>
+      <c r="EH49" s="15">
+        <v>1111111111</v>
+      </c>
+      <c r="EI49" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="EJ49" s="15">
+        <v>1111111111</v>
+      </c>
+      <c r="EK49" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="EL49" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="EM49" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="EN49" s="15">
+        <v>550000000</v>
+      </c>
+      <c r="EO49" s="15">
+        <v>55000000</v>
+      </c>
+      <c r="EP49" s="15">
+        <v>10</v>
+      </c>
+      <c r="EQ49" s="15">
+        <v>12</v>
+      </c>
+      <c r="ER49" s="15">
+        <v>6</v>
+      </c>
+      <c r="ES49" s="15">
+        <v>6</v>
+      </c>
+      <c r="ET49" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="EU49" s="15">
+        <v>100000</v>
+      </c>
+      <c r="EV49" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="EW49" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="EX49" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="EY49" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="EZ49" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="FA49" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="FB49" s="15">
+        <v>0</v>
+      </c>
+      <c r="FC49" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="FD49" s="15">
+        <v>0</v>
+      </c>
+      <c r="FE49" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="FF49" s="15">
+        <v>0</v>
+      </c>
+      <c r="FG49" s="15">
+        <v>1</v>
+      </c>
+      <c r="FH49" s="15">
+        <v>1000000</v>
+      </c>
+      <c r="FI49" s="15">
+        <v>100000</v>
+      </c>
+      <c r="FJ49" s="15">
+        <v>10</v>
+      </c>
+      <c r="FK49" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="FL49" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="FM49" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="FN49" s="15">
+        <v>12</v>
+      </c>
+      <c r="FO49" s="15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:171" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>54</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>367</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E50" t="s">
+        <v>252</v>
+      </c>
+      <c r="F50" t="s">
+        <v>254</v>
+      </c>
+      <c r="G50" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" t="s">
+        <v>380</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K50" t="s">
+        <v>255</v>
+      </c>
+      <c r="L50">
+        <v>10000000000</v>
+      </c>
+      <c r="M50" t="s">
+        <v>14</v>
+      </c>
+      <c r="N50">
+        <v>1995</v>
+      </c>
+      <c r="O50">
+        <v>10103</v>
+      </c>
+      <c r="P50">
+        <v>413514512</v>
+      </c>
+      <c r="Q50">
+        <v>1213</v>
+      </c>
+      <c r="R50" t="s">
+        <v>20</v>
+      </c>
+      <c r="S50" t="s">
+        <v>230</v>
+      </c>
+      <c r="T50" t="s">
+        <v>231</v>
+      </c>
+      <c r="U50" t="s">
+        <v>232</v>
+      </c>
+      <c r="V50">
+        <v>65145</v>
+      </c>
+      <c r="W50" t="s">
+        <v>26</v>
+      </c>
+      <c r="X50" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y50" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z50">
+        <v>1</v>
+      </c>
+      <c r="AA50">
+        <v>62</v>
+      </c>
+      <c r="AB50">
+        <v>89773662555</v>
+      </c>
+      <c r="AC50">
+        <v>23455</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE50">
+        <v>3345434656</v>
+      </c>
+      <c r="AF50">
+        <v>56643</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK50" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>233</v>
+      </c>
+      <c r="AP50" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>234</v>
+      </c>
+      <c r="AR50" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS50" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT50" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW50" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX50" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY50" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ50" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA50" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB50" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC50">
+        <v>11530</v>
+      </c>
+      <c r="BD50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE50" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF50" t="s">
+        <v>236</v>
+      </c>
+      <c r="BP50" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ50" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR50">
+        <v>15418</v>
+      </c>
+      <c r="BS50" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT50" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU50" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BV50" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW50" t="s">
+        <v>88</v>
+      </c>
+      <c r="BX50" t="s">
+        <v>90</v>
+      </c>
+      <c r="BY50" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ50" t="s">
+        <v>57</v>
+      </c>
+      <c r="CA50" t="s">
+        <v>95</v>
+      </c>
+      <c r="CB50">
+        <v>2343235657</v>
+      </c>
+      <c r="CC50" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD50" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CE50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF50" t="s">
+        <v>57</v>
+      </c>
+      <c r="CG50" t="s">
+        <v>105</v>
+      </c>
+      <c r="CH50" t="s">
+        <v>107</v>
+      </c>
+      <c r="CI50">
+        <v>15417</v>
+      </c>
+      <c r="CJ50">
+        <v>62</v>
+      </c>
+      <c r="CK50">
+        <v>83873594727</v>
+      </c>
+      <c r="CL50" t="s">
+        <v>112</v>
+      </c>
+      <c r="CM50" t="s">
+        <v>114</v>
+      </c>
+      <c r="CN50" t="s">
+        <v>57</v>
+      </c>
+      <c r="CO50" t="s">
+        <v>57</v>
+      </c>
+      <c r="CP50" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CQ50" t="s">
+        <v>120</v>
+      </c>
+      <c r="CR50" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CS50" t="s">
+        <v>48</v>
+      </c>
+      <c r="CT50" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="CU50" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="CV50" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="CW50" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="CX50" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="CY50" s="1">
+        <v>2</v>
+      </c>
+      <c r="CZ50" s="1">
+        <v>1</v>
+      </c>
+      <c r="DA50" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="DB50" t="s">
+        <v>129</v>
+      </c>
+      <c r="DC50" t="s">
+        <v>131</v>
+      </c>
+      <c r="DD50">
+        <v>11111111111</v>
+      </c>
+      <c r="DE50">
+        <v>11111111111</v>
+      </c>
+      <c r="DF50" t="s">
+        <v>135</v>
+      </c>
+      <c r="DG50" t="s">
+        <v>137</v>
+      </c>
+      <c r="DH50" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="DI50">
+        <v>10000000</v>
+      </c>
+      <c r="DJ50">
+        <v>10000000</v>
+      </c>
+      <c r="DK50">
+        <v>10000000</v>
+      </c>
+      <c r="DL50">
+        <v>11111111111</v>
+      </c>
+      <c r="DM50" t="s">
+        <v>145</v>
+      </c>
+      <c r="DN50" t="s">
+        <v>147</v>
+      </c>
+      <c r="DO50">
+        <v>123</v>
+      </c>
+      <c r="DP50" t="s">
+        <v>384</v>
+      </c>
+      <c r="DQ50" t="s">
+        <v>57</v>
+      </c>
+      <c r="DR50" t="s">
+        <v>153</v>
+      </c>
+      <c r="DS50">
+        <v>11111111111</v>
+      </c>
+      <c r="DT50" t="s">
+        <v>156</v>
+      </c>
+      <c r="DU50" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="DV50" t="s">
+        <v>159</v>
+      </c>
+      <c r="DW50" t="s">
+        <v>161</v>
+      </c>
+      <c r="DX50" t="s">
+        <v>215</v>
+      </c>
+      <c r="DY50" t="s">
+        <v>163</v>
+      </c>
+      <c r="DZ50" t="s">
+        <v>165</v>
+      </c>
+      <c r="EA50" t="s">
+        <v>167</v>
+      </c>
+      <c r="EB50" t="s">
+        <v>385</v>
+      </c>
+      <c r="EC50" t="s">
+        <v>366</v>
+      </c>
+      <c r="ED50" t="s">
+        <v>172</v>
+      </c>
+      <c r="EE50">
+        <v>2020</v>
+      </c>
+      <c r="EF50" t="s">
+        <v>175</v>
+      </c>
+      <c r="EG50">
+        <v>1111111111</v>
+      </c>
+      <c r="EH50">
+        <v>1111111111</v>
+      </c>
+      <c r="EI50" t="s">
+        <v>179</v>
+      </c>
+      <c r="EJ50">
+        <v>1111111111</v>
+      </c>
+      <c r="EK50" t="s">
+        <v>182</v>
+      </c>
+      <c r="EL50" t="s">
+        <v>184</v>
+      </c>
+      <c r="EM50" t="s">
+        <v>186</v>
+      </c>
+      <c r="EN50">
+        <v>550000000</v>
+      </c>
+      <c r="EO50">
+        <v>55000000</v>
+      </c>
+      <c r="EP50">
+        <v>10</v>
+      </c>
+      <c r="EQ50">
+        <v>12</v>
+      </c>
+      <c r="ER50">
+        <v>6</v>
+      </c>
+      <c r="ES50">
+        <v>6</v>
+      </c>
+      <c r="ET50">
+        <v>0.5</v>
+      </c>
+      <c r="EU50">
+        <v>100000</v>
+      </c>
+      <c r="EV50" t="s">
+        <v>196</v>
+      </c>
+      <c r="EW50" t="s">
+        <v>198</v>
+      </c>
+      <c r="EX50" t="s">
+        <v>200</v>
+      </c>
+      <c r="EY50" t="s">
+        <v>202</v>
+      </c>
+      <c r="EZ50" t="s">
+        <v>204</v>
+      </c>
+      <c r="FA50" t="s">
+        <v>206</v>
+      </c>
+      <c r="FB50">
+        <v>0</v>
+      </c>
+      <c r="FC50" t="s">
+        <v>209</v>
+      </c>
+      <c r="FD50">
+        <v>0</v>
+      </c>
+      <c r="FE50" t="s">
+        <v>212</v>
+      </c>
+      <c r="FF50">
+        <v>0</v>
+      </c>
+      <c r="FG50">
+        <v>1</v>
+      </c>
+      <c r="FH50">
+        <v>1000000</v>
+      </c>
+      <c r="FI50">
+        <v>100000</v>
+      </c>
+      <c r="FJ50">
+        <v>10</v>
+      </c>
+      <c r="FK50" t="s">
+        <v>221</v>
+      </c>
+      <c r="FL50" t="s">
+        <v>223</v>
+      </c>
+      <c r="FM50" t="s">
+        <v>225</v>
+      </c>
+      <c r="FN50">
+        <v>12</v>
+      </c>
+      <c r="FO50" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="51" spans="1:171" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>367</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E51" t="s">
+        <v>252</v>
+      </c>
+      <c r="F51" t="s">
+        <v>254</v>
+      </c>
+      <c r="G51" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I51" t="s">
+        <v>382</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K51" t="s">
+        <v>255</v>
+      </c>
+      <c r="L51">
+        <v>10000000000</v>
+      </c>
+      <c r="M51" t="s">
+        <v>14</v>
+      </c>
+      <c r="N51">
+        <v>1995</v>
+      </c>
+      <c r="O51">
+        <v>10103</v>
+      </c>
+      <c r="P51">
+        <v>413514512</v>
+      </c>
+      <c r="Q51">
+        <v>1213</v>
+      </c>
+      <c r="R51" t="s">
+        <v>20</v>
+      </c>
+      <c r="S51" t="s">
+        <v>230</v>
+      </c>
+      <c r="T51" t="s">
+        <v>231</v>
+      </c>
+      <c r="U51" t="s">
+        <v>232</v>
+      </c>
+      <c r="V51">
+        <v>65145</v>
+      </c>
+      <c r="W51" t="s">
+        <v>26</v>
+      </c>
+      <c r="X51" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y51" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z51">
+        <v>1</v>
+      </c>
+      <c r="AA51">
+        <v>62</v>
+      </c>
+      <c r="AB51">
+        <v>89773662555</v>
+      </c>
+      <c r="AC51">
+        <v>23455</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE51">
+        <v>3345434656</v>
+      </c>
+      <c r="AF51">
+        <v>56643</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK51" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>233</v>
+      </c>
+      <c r="AP51" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ51" t="s">
+        <v>234</v>
+      </c>
+      <c r="AR51" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS51" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT51" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW51" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX51" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY51" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ51" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA51" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB51" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC51">
+        <v>11530</v>
+      </c>
+      <c r="BD51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE51" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF51" t="s">
+        <v>236</v>
+      </c>
+      <c r="BP51" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ51" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR51">
+        <v>15418</v>
+      </c>
+      <c r="BS51" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT51" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU51" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BV51" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW51" t="s">
+        <v>88</v>
+      </c>
+      <c r="BX51" t="s">
+        <v>90</v>
+      </c>
+      <c r="BY51" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ51" t="s">
+        <v>57</v>
+      </c>
+      <c r="CA51" t="s">
+        <v>95</v>
+      </c>
+      <c r="CB51">
+        <v>2343235657</v>
+      </c>
+      <c r="CC51" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CE51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF51" t="s">
+        <v>57</v>
+      </c>
+      <c r="CG51" t="s">
+        <v>105</v>
+      </c>
+      <c r="CH51" t="s">
+        <v>107</v>
+      </c>
+      <c r="CI51">
+        <v>15417</v>
+      </c>
+      <c r="CJ51">
+        <v>62</v>
+      </c>
+      <c r="CK51">
+        <v>83873594727</v>
+      </c>
+      <c r="CL51" t="s">
+        <v>112</v>
+      </c>
+      <c r="CM51" t="s">
+        <v>114</v>
+      </c>
+      <c r="CN51" t="s">
+        <v>57</v>
+      </c>
+      <c r="CO51" t="s">
+        <v>57</v>
+      </c>
+      <c r="CP51" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CQ51" t="s">
+        <v>120</v>
+      </c>
+      <c r="CR51" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CS51" t="s">
+        <v>48</v>
+      </c>
+      <c r="CT51" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="CU51" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="CV51" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="CW51" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="CX51" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CY51" s="1">
+        <v>2</v>
+      </c>
+      <c r="CZ51" s="1">
+        <v>1</v>
+      </c>
+      <c r="DA51" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="DB51" t="s">
+        <v>129</v>
+      </c>
+      <c r="DC51" t="s">
+        <v>131</v>
+      </c>
+      <c r="DD51">
+        <v>11111111111</v>
+      </c>
+      <c r="DE51">
+        <v>11111111111</v>
+      </c>
+      <c r="DF51" t="s">
+        <v>135</v>
+      </c>
+      <c r="DG51" t="s">
+        <v>137</v>
+      </c>
+      <c r="DH51" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="DI51">
+        <v>10000000</v>
+      </c>
+      <c r="DJ51">
+        <v>10000000</v>
+      </c>
+      <c r="DK51">
+        <v>10000000</v>
+      </c>
+      <c r="DL51">
+        <v>11111111111</v>
+      </c>
+      <c r="DM51" t="s">
+        <v>145</v>
+      </c>
+      <c r="DN51" t="s">
+        <v>147</v>
+      </c>
+      <c r="DO51">
+        <v>123</v>
+      </c>
+      <c r="DP51" t="s">
+        <v>384</v>
+      </c>
+      <c r="DQ51" t="s">
+        <v>57</v>
+      </c>
+      <c r="DR51" t="s">
+        <v>153</v>
+      </c>
+      <c r="DS51">
+        <v>11111111111</v>
+      </c>
+      <c r="DT51" t="s">
+        <v>156</v>
+      </c>
+      <c r="DU51" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="DV51" t="s">
+        <v>159</v>
+      </c>
+      <c r="DW51" t="s">
+        <v>161</v>
+      </c>
+      <c r="DX51" t="s">
+        <v>215</v>
+      </c>
+      <c r="DY51" t="s">
+        <v>163</v>
+      </c>
+      <c r="DZ51" t="s">
+        <v>165</v>
+      </c>
+      <c r="EA51" t="s">
+        <v>167</v>
+      </c>
+      <c r="EB51" t="s">
+        <v>385</v>
+      </c>
+      <c r="EC51" t="s">
+        <v>366</v>
+      </c>
+      <c r="ED51" t="s">
+        <v>172</v>
+      </c>
+      <c r="EE51">
+        <v>2020</v>
+      </c>
+      <c r="EF51" t="s">
+        <v>175</v>
+      </c>
+      <c r="EG51">
+        <v>1111111111</v>
+      </c>
+      <c r="EH51">
+        <v>1111111111</v>
+      </c>
+      <c r="EI51" t="s">
+        <v>179</v>
+      </c>
+      <c r="EJ51">
+        <v>1111111111</v>
+      </c>
+      <c r="EK51" t="s">
+        <v>182</v>
+      </c>
+      <c r="EL51" t="s">
+        <v>184</v>
+      </c>
+      <c r="EM51" t="s">
+        <v>186</v>
+      </c>
+      <c r="EN51">
+        <v>550000000</v>
+      </c>
+      <c r="EO51">
+        <v>55000000</v>
+      </c>
+      <c r="EP51">
+        <v>10</v>
+      </c>
+      <c r="EQ51">
+        <v>12</v>
+      </c>
+      <c r="ER51">
+        <v>6</v>
+      </c>
+      <c r="ES51">
+        <v>6</v>
+      </c>
+      <c r="ET51">
+        <v>0.5</v>
+      </c>
+      <c r="EU51">
+        <v>100000</v>
+      </c>
+      <c r="EV51" t="s">
+        <v>196</v>
+      </c>
+      <c r="EW51" t="s">
+        <v>198</v>
+      </c>
+      <c r="EX51" t="s">
+        <v>200</v>
+      </c>
+      <c r="EY51" t="s">
+        <v>202</v>
+      </c>
+      <c r="EZ51" t="s">
+        <v>204</v>
+      </c>
+      <c r="FA51" t="s">
+        <v>206</v>
+      </c>
+      <c r="FB51">
+        <v>0</v>
+      </c>
+      <c r="FC51" t="s">
+        <v>209</v>
+      </c>
+      <c r="FD51">
+        <v>0</v>
+      </c>
+      <c r="FE51" t="s">
+        <v>212</v>
+      </c>
+      <c r="FF51">
+        <v>0</v>
+      </c>
+      <c r="FG51">
+        <v>1</v>
+      </c>
+      <c r="FH51">
+        <v>1000000</v>
+      </c>
+      <c r="FI51">
+        <v>100000</v>
+      </c>
+      <c r="FJ51">
+        <v>10</v>
+      </c>
+      <c r="FK51" t="s">
+        <v>221</v>
+      </c>
+      <c r="FL51" t="s">
+        <v>223</v>
+      </c>
+      <c r="FM51" t="s">
+        <v>225</v>
+      </c>
+      <c r="FN51">
+        <v>12</v>
+      </c>
+      <c r="FO51" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:171" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>367</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E52" t="s">
+        <v>252</v>
+      </c>
+      <c r="F52" t="s">
+        <v>254</v>
+      </c>
+      <c r="G52" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K52" t="s">
+        <v>255</v>
+      </c>
+      <c r="L52">
+        <v>10000000000</v>
+      </c>
+      <c r="M52" t="s">
+        <v>14</v>
+      </c>
+      <c r="N52">
+        <v>1995</v>
+      </c>
+      <c r="O52">
+        <v>10103</v>
+      </c>
+      <c r="P52">
+        <v>413514512</v>
+      </c>
+      <c r="Q52">
+        <v>1213</v>
+      </c>
+      <c r="R52" t="s">
+        <v>20</v>
+      </c>
+      <c r="S52" t="s">
+        <v>230</v>
+      </c>
+      <c r="T52" t="s">
+        <v>231</v>
+      </c>
+      <c r="U52" t="s">
+        <v>232</v>
+      </c>
+      <c r="V52">
+        <v>65145</v>
+      </c>
+      <c r="W52" t="s">
+        <v>26</v>
+      </c>
+      <c r="X52" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y52" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z52">
+        <v>1</v>
+      </c>
+      <c r="AA52">
+        <v>62</v>
+      </c>
+      <c r="AB52">
+        <v>89773662555</v>
+      </c>
+      <c r="AC52">
+        <v>23455</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE52">
+        <v>3345434656</v>
+      </c>
+      <c r="AF52">
+        <v>56643</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK52" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>233</v>
+      </c>
+      <c r="AP52" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ52" t="s">
+        <v>234</v>
+      </c>
+      <c r="AR52" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS52" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT52" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV52" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW52" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX52" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY52" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ52" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA52" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB52" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC52">
+        <v>11530</v>
+      </c>
+      <c r="BD52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE52" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF52" t="s">
+        <v>236</v>
+      </c>
+      <c r="BP52" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ52" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR52">
+        <v>15418</v>
+      </c>
+      <c r="BS52" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT52" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU52" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BV52" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW52" t="s">
+        <v>88</v>
+      </c>
+      <c r="BX52" t="s">
+        <v>90</v>
+      </c>
+      <c r="BY52" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ52" t="s">
+        <v>57</v>
+      </c>
+      <c r="CA52" t="s">
+        <v>95</v>
+      </c>
+      <c r="CB52">
+        <v>2343235657</v>
+      </c>
+      <c r="CC52" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD52" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CE52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF52" t="s">
+        <v>57</v>
+      </c>
+      <c r="CG52" t="s">
+        <v>105</v>
+      </c>
+      <c r="CH52" t="s">
+        <v>107</v>
+      </c>
+      <c r="CI52">
+        <v>15417</v>
+      </c>
+      <c r="CJ52">
+        <v>62</v>
+      </c>
+      <c r="CK52">
+        <v>83873594727</v>
+      </c>
+      <c r="CL52" t="s">
+        <v>112</v>
+      </c>
+      <c r="CM52" t="s">
+        <v>114</v>
+      </c>
+      <c r="CN52" t="s">
+        <v>57</v>
+      </c>
+      <c r="CO52" t="s">
+        <v>57</v>
+      </c>
+      <c r="CP52" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CQ52" t="s">
+        <v>120</v>
+      </c>
+      <c r="CR52" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CS52" t="s">
+        <v>48</v>
+      </c>
+      <c r="CT52" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="CU52" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="CV52" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="CW52" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="CX52" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="CY52" s="1">
+        <v>2</v>
+      </c>
+      <c r="CZ52" s="1">
+        <v>1</v>
+      </c>
+      <c r="DA52" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="DB52" t="s">
+        <v>129</v>
+      </c>
+      <c r="DC52" t="s">
+        <v>131</v>
+      </c>
+      <c r="DD52">
+        <v>11111111111</v>
+      </c>
+      <c r="DE52">
+        <v>11111111111</v>
+      </c>
+      <c r="DF52" t="s">
+        <v>135</v>
+      </c>
+      <c r="DG52" t="s">
+        <v>137</v>
+      </c>
+      <c r="DH52" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="DI52">
+        <v>10000000</v>
+      </c>
+      <c r="DJ52">
+        <v>10000000</v>
+      </c>
+      <c r="DK52">
+        <v>10000000</v>
+      </c>
+      <c r="DL52">
+        <v>11111111111</v>
+      </c>
+      <c r="DM52" t="s">
+        <v>145</v>
+      </c>
+      <c r="DN52" t="s">
+        <v>147</v>
+      </c>
+      <c r="DO52">
+        <v>123</v>
+      </c>
+      <c r="DP52" t="s">
+        <v>384</v>
+      </c>
+      <c r="DQ52" t="s">
+        <v>57</v>
+      </c>
+      <c r="DR52" t="s">
+        <v>153</v>
+      </c>
+      <c r="DS52">
+        <v>11111111111</v>
+      </c>
+      <c r="DT52" t="s">
+        <v>156</v>
+      </c>
+      <c r="DU52" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="DV52" t="s">
+        <v>159</v>
+      </c>
+      <c r="DW52" t="s">
+        <v>161</v>
+      </c>
+      <c r="DX52" t="s">
+        <v>215</v>
+      </c>
+      <c r="DY52" t="s">
+        <v>163</v>
+      </c>
+      <c r="DZ52" t="s">
+        <v>165</v>
+      </c>
+      <c r="EA52" t="s">
+        <v>167</v>
+      </c>
+      <c r="EB52" t="s">
+        <v>385</v>
+      </c>
+      <c r="EC52" t="s">
+        <v>366</v>
+      </c>
+      <c r="ED52" t="s">
+        <v>172</v>
+      </c>
+      <c r="EE52">
+        <v>2020</v>
+      </c>
+      <c r="EF52" t="s">
+        <v>175</v>
+      </c>
+      <c r="EG52">
+        <v>1111111111</v>
+      </c>
+      <c r="EH52">
+        <v>1111111111</v>
+      </c>
+      <c r="EI52" t="s">
+        <v>179</v>
+      </c>
+      <c r="EJ52">
+        <v>1111111111</v>
+      </c>
+      <c r="EK52" t="s">
+        <v>182</v>
+      </c>
+      <c r="EL52" t="s">
+        <v>184</v>
+      </c>
+      <c r="EM52" t="s">
+        <v>186</v>
+      </c>
+      <c r="EN52">
+        <v>550000000</v>
+      </c>
+      <c r="EO52">
+        <v>55000000</v>
+      </c>
+      <c r="EP52">
+        <v>10</v>
+      </c>
+      <c r="EQ52">
+        <v>12</v>
+      </c>
+      <c r="ER52">
+        <v>6</v>
+      </c>
+      <c r="ES52">
+        <v>6</v>
+      </c>
+      <c r="ET52">
+        <v>0.5</v>
+      </c>
+      <c r="EU52">
+        <v>100000</v>
+      </c>
+      <c r="EV52" t="s">
+        <v>196</v>
+      </c>
+      <c r="EW52" t="s">
+        <v>198</v>
+      </c>
+      <c r="EX52" t="s">
+        <v>200</v>
+      </c>
+      <c r="EY52" t="s">
+        <v>202</v>
+      </c>
+      <c r="EZ52" t="s">
+        <v>204</v>
+      </c>
+      <c r="FA52" t="s">
+        <v>206</v>
+      </c>
+      <c r="FB52">
+        <v>0</v>
+      </c>
+      <c r="FC52" t="s">
+        <v>209</v>
+      </c>
+      <c r="FD52">
+        <v>0</v>
+      </c>
+      <c r="FE52" t="s">
+        <v>212</v>
+      </c>
+      <c r="FF52">
+        <v>0</v>
+      </c>
+      <c r="FG52">
+        <v>1</v>
+      </c>
+      <c r="FH52">
+        <v>1000000</v>
+      </c>
+      <c r="FI52">
+        <v>100000</v>
+      </c>
+      <c r="FJ52">
+        <v>10</v>
+      </c>
+      <c r="FK52" t="s">
+        <v>221</v>
+      </c>
+      <c r="FL52" t="s">
+        <v>223</v>
+      </c>
+      <c r="FM52" t="s">
+        <v>225</v>
+      </c>
+      <c r="FN52">
+        <v>12</v>
+      </c>
+      <c r="FO52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="53" spans="1:171" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>57</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>367</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E53" t="s">
+        <v>252</v>
+      </c>
+      <c r="F53" t="s">
+        <v>254</v>
+      </c>
+      <c r="G53" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I53" t="s">
+        <v>359</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K53" t="s">
+        <v>255</v>
+      </c>
+      <c r="L53">
+        <v>10000000000</v>
+      </c>
+      <c r="M53" t="s">
+        <v>14</v>
+      </c>
+      <c r="N53">
+        <v>1995</v>
+      </c>
+      <c r="O53">
+        <v>10103</v>
+      </c>
+      <c r="P53">
+        <v>413514512</v>
+      </c>
+      <c r="Q53">
+        <v>1213</v>
+      </c>
+      <c r="R53" t="s">
+        <v>20</v>
+      </c>
+      <c r="S53" t="s">
+        <v>230</v>
+      </c>
+      <c r="T53" t="s">
+        <v>231</v>
+      </c>
+      <c r="U53" t="s">
+        <v>232</v>
+      </c>
+      <c r="V53">
+        <v>65145</v>
+      </c>
+      <c r="W53" t="s">
+        <v>26</v>
+      </c>
+      <c r="X53" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y53" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z53">
+        <v>1</v>
+      </c>
+      <c r="AA53">
+        <v>62</v>
+      </c>
+      <c r="AB53">
+        <v>89773662555</v>
+      </c>
+      <c r="AC53">
+        <v>23455</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE53">
+        <v>3345434656</v>
+      </c>
+      <c r="AF53">
+        <v>56643</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK53" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN53" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO53" t="s">
+        <v>233</v>
+      </c>
+      <c r="AP53" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ53" t="s">
+        <v>234</v>
+      </c>
+      <c r="AR53" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS53" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT53" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV53" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW53" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX53" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY53" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ53" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA53" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB53" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC53">
+        <v>11530</v>
+      </c>
+      <c r="BD53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE53" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF53" t="s">
+        <v>236</v>
+      </c>
+      <c r="BP53" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ53" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR53">
+        <v>15418</v>
+      </c>
+      <c r="BS53" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT53" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU53" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BV53" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW53" t="s">
+        <v>88</v>
+      </c>
+      <c r="BX53" t="s">
+        <v>90</v>
+      </c>
+      <c r="BY53" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ53" t="s">
+        <v>57</v>
+      </c>
+      <c r="CA53" t="s">
+        <v>95</v>
+      </c>
+      <c r="CB53">
+        <v>2343235657</v>
+      </c>
+      <c r="CC53" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD53" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CE53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF53" t="s">
+        <v>57</v>
+      </c>
+      <c r="CG53" t="s">
+        <v>105</v>
+      </c>
+      <c r="CH53" t="s">
+        <v>107</v>
+      </c>
+      <c r="CI53">
+        <v>15417</v>
+      </c>
+      <c r="CJ53">
+        <v>62</v>
+      </c>
+      <c r="CK53">
+        <v>83873594727</v>
+      </c>
+      <c r="CL53" t="s">
+        <v>112</v>
+      </c>
+      <c r="CM53" t="s">
+        <v>114</v>
+      </c>
+      <c r="CN53" t="s">
+        <v>57</v>
+      </c>
+      <c r="CO53" t="s">
+        <v>57</v>
+      </c>
+      <c r="CP53" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CQ53" t="s">
+        <v>120</v>
+      </c>
+      <c r="CR53" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CS53" t="s">
+        <v>48</v>
+      </c>
+      <c r="CT53" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="CU53" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="CV53" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="CW53" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="CX53" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="CY53" s="1">
+        <v>2</v>
+      </c>
+      <c r="CZ53" s="1">
+        <v>1</v>
+      </c>
+      <c r="DA53" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="DB53" t="s">
+        <v>129</v>
+      </c>
+      <c r="DC53" t="s">
+        <v>131</v>
+      </c>
+      <c r="DD53">
+        <v>11111111111</v>
+      </c>
+      <c r="DE53">
+        <v>11111111111</v>
+      </c>
+      <c r="DF53" t="s">
+        <v>135</v>
+      </c>
+      <c r="DG53" t="s">
+        <v>137</v>
+      </c>
+      <c r="DH53" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="DI53">
+        <v>10000000</v>
+      </c>
+      <c r="DJ53">
+        <v>10000000</v>
+      </c>
+      <c r="DK53">
+        <v>10000000</v>
+      </c>
+      <c r="DL53">
+        <v>11111111111</v>
+      </c>
+      <c r="DM53" t="s">
+        <v>145</v>
+      </c>
+      <c r="DN53" t="s">
+        <v>147</v>
+      </c>
+      <c r="DO53">
+        <v>123</v>
+      </c>
+      <c r="DP53" t="s">
+        <v>384</v>
+      </c>
+      <c r="DQ53" t="s">
+        <v>57</v>
+      </c>
+      <c r="DR53" t="s">
+        <v>153</v>
+      </c>
+      <c r="DS53">
+        <v>11111111111</v>
+      </c>
+      <c r="DT53" t="s">
+        <v>156</v>
+      </c>
+      <c r="DU53" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="DV53" t="s">
+        <v>159</v>
+      </c>
+      <c r="DW53" t="s">
+        <v>161</v>
+      </c>
+      <c r="DX53" t="s">
+        <v>215</v>
+      </c>
+      <c r="DY53" t="s">
+        <v>163</v>
+      </c>
+      <c r="DZ53" t="s">
+        <v>165</v>
+      </c>
+      <c r="EA53" t="s">
+        <v>167</v>
+      </c>
+      <c r="EB53" t="s">
+        <v>385</v>
+      </c>
+      <c r="EC53" t="s">
+        <v>366</v>
+      </c>
+      <c r="ED53" t="s">
+        <v>172</v>
+      </c>
+      <c r="EE53">
+        <v>2020</v>
+      </c>
+      <c r="EF53" t="s">
+        <v>175</v>
+      </c>
+      <c r="EG53">
+        <v>1111111111</v>
+      </c>
+      <c r="EH53">
+        <v>1111111111</v>
+      </c>
+      <c r="EI53" t="s">
+        <v>179</v>
+      </c>
+      <c r="EJ53">
+        <v>1111111111</v>
+      </c>
+      <c r="EK53" t="s">
+        <v>182</v>
+      </c>
+      <c r="EL53" t="s">
+        <v>184</v>
+      </c>
+      <c r="EM53" t="s">
+        <v>186</v>
+      </c>
+      <c r="EN53">
+        <v>550000000</v>
+      </c>
+      <c r="EO53">
+        <v>55000000</v>
+      </c>
+      <c r="EP53">
+        <v>10</v>
+      </c>
+      <c r="EQ53">
+        <v>12</v>
+      </c>
+      <c r="ER53">
+        <v>6</v>
+      </c>
+      <c r="ES53">
+        <v>6</v>
+      </c>
+      <c r="ET53">
+        <v>0.5</v>
+      </c>
+      <c r="EU53">
+        <v>100000</v>
+      </c>
+      <c r="EV53" t="s">
+        <v>196</v>
+      </c>
+      <c r="EW53" t="s">
+        <v>198</v>
+      </c>
+      <c r="EX53" t="s">
+        <v>200</v>
+      </c>
+      <c r="EY53" t="s">
+        <v>202</v>
+      </c>
+      <c r="EZ53" t="s">
+        <v>204</v>
+      </c>
+      <c r="FA53" t="s">
+        <v>206</v>
+      </c>
+      <c r="FB53">
+        <v>0</v>
+      </c>
+      <c r="FC53" t="s">
+        <v>209</v>
+      </c>
+      <c r="FD53">
+        <v>0</v>
+      </c>
+      <c r="FE53" t="s">
+        <v>212</v>
+      </c>
+      <c r="FF53">
+        <v>0</v>
+      </c>
+      <c r="FG53">
+        <v>1</v>
+      </c>
+      <c r="FH53">
+        <v>1000000</v>
+      </c>
+      <c r="FI53">
+        <v>100000</v>
+      </c>
+      <c r="FJ53">
+        <v>10</v>
+      </c>
+      <c r="FK53" t="s">
+        <v>221</v>
+      </c>
+      <c r="FL53" t="s">
+        <v>223</v>
+      </c>
+      <c r="FM53" t="s">
+        <v>225</v>
+      </c>
+      <c r="FN53">
+        <v>12</v>
+      </c>
+      <c r="FO53" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="54" spans="1:171" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>58</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>367</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E54" t="s">
+        <v>252</v>
+      </c>
+      <c r="F54" t="s">
+        <v>254</v>
+      </c>
+      <c r="G54" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I54" t="s">
+        <v>355</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K54" t="s">
+        <v>255</v>
+      </c>
+      <c r="L54">
+        <v>10000000000</v>
+      </c>
+      <c r="M54" t="s">
+        <v>14</v>
+      </c>
+      <c r="N54">
+        <v>1995</v>
+      </c>
+      <c r="O54">
+        <v>10103</v>
+      </c>
+      <c r="P54">
+        <v>413514512</v>
+      </c>
+      <c r="Q54">
+        <v>1213</v>
+      </c>
+      <c r="R54" t="s">
+        <v>20</v>
+      </c>
+      <c r="S54" t="s">
+        <v>230</v>
+      </c>
+      <c r="T54" t="s">
+        <v>231</v>
+      </c>
+      <c r="U54" t="s">
+        <v>232</v>
+      </c>
+      <c r="V54">
+        <v>65145</v>
+      </c>
+      <c r="W54" t="s">
+        <v>26</v>
+      </c>
+      <c r="X54" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y54" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z54">
+        <v>1</v>
+      </c>
+      <c r="AA54">
+        <v>62</v>
+      </c>
+      <c r="AB54">
+        <v>89773662555</v>
+      </c>
+      <c r="AC54">
+        <v>23455</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE54">
+        <v>3345434656</v>
+      </c>
+      <c r="AF54">
+        <v>56643</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ54" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK54" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>233</v>
+      </c>
+      <c r="AP54" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ54" t="s">
+        <v>234</v>
+      </c>
+      <c r="AR54" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS54" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT54" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU54" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW54" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX54" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY54" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ54" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA54" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB54" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC54">
+        <v>11530</v>
+      </c>
+      <c r="BD54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE54" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF54" t="s">
+        <v>236</v>
+      </c>
+      <c r="BP54" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ54" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR54">
+        <v>15418</v>
+      </c>
+      <c r="BS54" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT54" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU54" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BV54" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW54" t="s">
+        <v>88</v>
+      </c>
+      <c r="BX54" t="s">
+        <v>90</v>
+      </c>
+      <c r="BY54" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ54" t="s">
+        <v>57</v>
+      </c>
+      <c r="CA54" t="s">
+        <v>95</v>
+      </c>
+      <c r="CB54">
+        <v>2343235657</v>
+      </c>
+      <c r="CC54" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD54" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CE54" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF54" t="s">
+        <v>57</v>
+      </c>
+      <c r="CG54" t="s">
+        <v>105</v>
+      </c>
+      <c r="CH54" t="s">
+        <v>107</v>
+      </c>
+      <c r="CI54">
+        <v>15417</v>
+      </c>
+      <c r="CJ54">
+        <v>62</v>
+      </c>
+      <c r="CK54">
+        <v>83873594727</v>
+      </c>
+      <c r="CL54" t="s">
+        <v>112</v>
+      </c>
+      <c r="CM54" t="s">
+        <v>114</v>
+      </c>
+      <c r="CN54" t="s">
+        <v>57</v>
+      </c>
+      <c r="CO54" t="s">
+        <v>57</v>
+      </c>
+      <c r="CP54" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CQ54" t="s">
+        <v>120</v>
+      </c>
+      <c r="CR54" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CS54" t="s">
+        <v>48</v>
+      </c>
+      <c r="CT54" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="CU54" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="CV54" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="CW54" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="CX54" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CY54" s="1">
+        <v>2</v>
+      </c>
+      <c r="CZ54" s="1">
+        <v>1</v>
+      </c>
+      <c r="DA54" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="DB54" t="s">
+        <v>129</v>
+      </c>
+      <c r="DC54" t="s">
+        <v>131</v>
+      </c>
+      <c r="DD54">
+        <v>11111111111</v>
+      </c>
+      <c r="DE54">
+        <v>11111111111</v>
+      </c>
+      <c r="DF54" t="s">
+        <v>135</v>
+      </c>
+      <c r="DG54" t="s">
+        <v>137</v>
+      </c>
+      <c r="DH54" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="DI54">
+        <v>10000000</v>
+      </c>
+      <c r="DJ54">
+        <v>10000000</v>
+      </c>
+      <c r="DK54">
+        <v>10000000</v>
+      </c>
+      <c r="DL54">
+        <v>11111111111</v>
+      </c>
+      <c r="DM54" t="s">
+        <v>145</v>
+      </c>
+      <c r="DN54" t="s">
+        <v>147</v>
+      </c>
+      <c r="DO54">
+        <v>123</v>
+      </c>
+      <c r="DP54" t="s">
+        <v>384</v>
+      </c>
+      <c r="DQ54" t="s">
+        <v>57</v>
+      </c>
+      <c r="DR54" t="s">
+        <v>153</v>
+      </c>
+      <c r="DS54">
+        <v>11111111111</v>
+      </c>
+      <c r="DT54" t="s">
+        <v>156</v>
+      </c>
+      <c r="DU54" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="DV54" t="s">
+        <v>159</v>
+      </c>
+      <c r="DW54" t="s">
+        <v>161</v>
+      </c>
+      <c r="DX54" t="s">
+        <v>215</v>
+      </c>
+      <c r="DY54" t="s">
+        <v>163</v>
+      </c>
+      <c r="DZ54" t="s">
+        <v>165</v>
+      </c>
+      <c r="EA54" t="s">
+        <v>167</v>
+      </c>
+      <c r="EB54" t="s">
+        <v>385</v>
+      </c>
+      <c r="EC54" t="s">
+        <v>366</v>
+      </c>
+      <c r="ED54" t="s">
+        <v>172</v>
+      </c>
+      <c r="EE54">
+        <v>2020</v>
+      </c>
+      <c r="EF54" t="s">
+        <v>175</v>
+      </c>
+      <c r="EG54">
+        <v>1111111111</v>
+      </c>
+      <c r="EH54">
+        <v>1111111111</v>
+      </c>
+      <c r="EI54" t="s">
+        <v>179</v>
+      </c>
+      <c r="EJ54">
+        <v>1111111111</v>
+      </c>
+      <c r="EK54" t="s">
+        <v>182</v>
+      </c>
+      <c r="EL54" t="s">
+        <v>184</v>
+      </c>
+      <c r="EM54" t="s">
+        <v>186</v>
+      </c>
+      <c r="EN54">
+        <v>550000000</v>
+      </c>
+      <c r="EO54">
+        <v>55000000</v>
+      </c>
+      <c r="EP54">
+        <v>10</v>
+      </c>
+      <c r="EQ54">
+        <v>12</v>
+      </c>
+      <c r="ER54">
+        <v>6</v>
+      </c>
+      <c r="ES54">
+        <v>6</v>
+      </c>
+      <c r="ET54">
+        <v>0.5</v>
+      </c>
+      <c r="EU54">
+        <v>100000</v>
+      </c>
+      <c r="EV54" t="s">
+        <v>196</v>
+      </c>
+      <c r="EW54" t="s">
+        <v>198</v>
+      </c>
+      <c r="EX54" t="s">
+        <v>200</v>
+      </c>
+      <c r="EY54" t="s">
+        <v>202</v>
+      </c>
+      <c r="EZ54" t="s">
+        <v>204</v>
+      </c>
+      <c r="FA54" t="s">
+        <v>206</v>
+      </c>
+      <c r="FB54">
+        <v>0</v>
+      </c>
+      <c r="FC54" t="s">
+        <v>209</v>
+      </c>
+      <c r="FD54">
+        <v>0</v>
+      </c>
+      <c r="FE54" t="s">
+        <v>212</v>
+      </c>
+      <c r="FF54">
+        <v>0</v>
+      </c>
+      <c r="FG54">
+        <v>1</v>
+      </c>
+      <c r="FH54">
+        <v>1000000</v>
+      </c>
+      <c r="FI54">
+        <v>100000</v>
+      </c>
+      <c r="FJ54">
+        <v>10</v>
+      </c>
+      <c r="FK54" t="s">
+        <v>221</v>
+      </c>
+      <c r="FL54" t="s">
+        <v>223</v>
+      </c>
+      <c r="FM54" t="s">
+        <v>225</v>
+      </c>
+      <c r="FN54">
+        <v>12</v>
+      </c>
+      <c r="FO54" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="55" spans="1:171" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>59</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>367</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E55" t="s">
+        <v>252</v>
+      </c>
+      <c r="F55" t="s">
+        <v>254</v>
+      </c>
+      <c r="G55" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K55" t="s">
+        <v>255</v>
+      </c>
+      <c r="L55">
+        <v>10000000000</v>
+      </c>
+      <c r="M55" t="s">
+        <v>14</v>
+      </c>
+      <c r="N55">
+        <v>1995</v>
+      </c>
+      <c r="O55">
+        <v>10103</v>
+      </c>
+      <c r="P55">
+        <v>413514512</v>
+      </c>
+      <c r="Q55">
+        <v>1213</v>
+      </c>
+      <c r="R55" t="s">
+        <v>20</v>
+      </c>
+      <c r="S55" t="s">
+        <v>230</v>
+      </c>
+      <c r="T55" t="s">
+        <v>231</v>
+      </c>
+      <c r="U55" t="s">
+        <v>232</v>
+      </c>
+      <c r="V55">
+        <v>65145</v>
+      </c>
+      <c r="W55" t="s">
+        <v>26</v>
+      </c>
+      <c r="X55" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y55" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z55">
+        <v>1</v>
+      </c>
+      <c r="AA55">
+        <v>62</v>
+      </c>
+      <c r="AB55">
+        <v>89773662555</v>
+      </c>
+      <c r="AC55">
+        <v>23455</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE55">
+        <v>3345434656</v>
+      </c>
+      <c r="AF55">
+        <v>56643</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK55" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>233</v>
+      </c>
+      <c r="AP55" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ55" t="s">
+        <v>234</v>
+      </c>
+      <c r="AR55" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS55" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT55" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV55" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW55" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX55" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY55" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ55" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA55" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB55" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC55">
+        <v>11530</v>
+      </c>
+      <c r="BD55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE55" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF55" t="s">
+        <v>236</v>
+      </c>
+      <c r="BP55" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ55" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR55">
+        <v>15418</v>
+      </c>
+      <c r="BS55" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT55" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU55" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BV55" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW55" t="s">
+        <v>88</v>
+      </c>
+      <c r="BX55" t="s">
+        <v>90</v>
+      </c>
+      <c r="BY55" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ55" t="s">
+        <v>57</v>
+      </c>
+      <c r="CA55" t="s">
+        <v>95</v>
+      </c>
+      <c r="CB55">
+        <v>2343235657</v>
+      </c>
+      <c r="CC55" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD55" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CE55" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF55" t="s">
+        <v>57</v>
+      </c>
+      <c r="CG55" t="s">
+        <v>105</v>
+      </c>
+      <c r="CH55" t="s">
+        <v>107</v>
+      </c>
+      <c r="CI55">
+        <v>15417</v>
+      </c>
+      <c r="CJ55">
+        <v>62</v>
+      </c>
+      <c r="CK55">
+        <v>83873594727</v>
+      </c>
+      <c r="CL55" t="s">
+        <v>112</v>
+      </c>
+      <c r="CM55" t="s">
+        <v>114</v>
+      </c>
+      <c r="CN55" t="s">
+        <v>57</v>
+      </c>
+      <c r="CO55" t="s">
+        <v>57</v>
+      </c>
+      <c r="CP55" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CQ55" t="s">
+        <v>120</v>
+      </c>
+      <c r="CR55" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CS55" t="s">
+        <v>48</v>
+      </c>
+      <c r="CT55" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="CU55" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="CV55" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="CW55" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="CX55" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="CY55" s="1">
+        <v>2</v>
+      </c>
+      <c r="CZ55" s="1">
+        <v>1</v>
+      </c>
+      <c r="DA55" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="DB55" t="s">
+        <v>129</v>
+      </c>
+      <c r="DC55" t="s">
+        <v>131</v>
+      </c>
+      <c r="DD55">
+        <v>11111111111</v>
+      </c>
+      <c r="DE55">
+        <v>11111111111</v>
+      </c>
+      <c r="DF55" t="s">
+        <v>135</v>
+      </c>
+      <c r="DG55" t="s">
+        <v>137</v>
+      </c>
+      <c r="DH55" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="DI55">
+        <v>10000000</v>
+      </c>
+      <c r="DJ55">
+        <v>10000000</v>
+      </c>
+      <c r="DK55">
+        <v>10000000</v>
+      </c>
+      <c r="DL55">
+        <v>11111111111</v>
+      </c>
+      <c r="DM55" t="s">
+        <v>145</v>
+      </c>
+      <c r="DN55" t="s">
+        <v>147</v>
+      </c>
+      <c r="DO55">
+        <v>123</v>
+      </c>
+      <c r="DP55" t="s">
+        <v>384</v>
+      </c>
+      <c r="DQ55" t="s">
+        <v>57</v>
+      </c>
+      <c r="DR55" t="s">
+        <v>153</v>
+      </c>
+      <c r="DS55">
+        <v>11111111111</v>
+      </c>
+      <c r="DT55" t="s">
+        <v>156</v>
+      </c>
+      <c r="DU55" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="DV55" t="s">
+        <v>159</v>
+      </c>
+      <c r="DW55" t="s">
+        <v>161</v>
+      </c>
+      <c r="DX55" t="s">
+        <v>215</v>
+      </c>
+      <c r="DY55" t="s">
+        <v>163</v>
+      </c>
+      <c r="DZ55" t="s">
+        <v>165</v>
+      </c>
+      <c r="EA55" t="s">
+        <v>167</v>
+      </c>
+      <c r="EB55" t="s">
+        <v>385</v>
+      </c>
+      <c r="EC55" t="s">
+        <v>366</v>
+      </c>
+      <c r="ED55" t="s">
+        <v>172</v>
+      </c>
+      <c r="EE55">
+        <v>2020</v>
+      </c>
+      <c r="EF55" t="s">
+        <v>175</v>
+      </c>
+      <c r="EG55">
+        <v>1111111111</v>
+      </c>
+      <c r="EH55">
+        <v>1111111111</v>
+      </c>
+      <c r="EI55" t="s">
+        <v>179</v>
+      </c>
+      <c r="EJ55">
+        <v>1111111111</v>
+      </c>
+      <c r="EK55" t="s">
+        <v>182</v>
+      </c>
+      <c r="EL55" t="s">
+        <v>184</v>
+      </c>
+      <c r="EM55" t="s">
+        <v>186</v>
+      </c>
+      <c r="EN55">
+        <v>550000000</v>
+      </c>
+      <c r="EO55">
+        <v>55000000</v>
+      </c>
+      <c r="EP55">
+        <v>10</v>
+      </c>
+      <c r="EQ55">
+        <v>12</v>
+      </c>
+      <c r="ER55">
+        <v>6</v>
+      </c>
+      <c r="ES55">
+        <v>6</v>
+      </c>
+      <c r="ET55">
+        <v>0.5</v>
+      </c>
+      <c r="EU55">
+        <v>100000</v>
+      </c>
+      <c r="EV55" t="s">
+        <v>196</v>
+      </c>
+      <c r="EW55" t="s">
+        <v>198</v>
+      </c>
+      <c r="EX55" t="s">
+        <v>200</v>
+      </c>
+      <c r="EY55" t="s">
+        <v>202</v>
+      </c>
+      <c r="EZ55" t="s">
+        <v>204</v>
+      </c>
+      <c r="FA55" t="s">
+        <v>206</v>
+      </c>
+      <c r="FB55">
+        <v>0</v>
+      </c>
+      <c r="FC55" t="s">
+        <v>209</v>
+      </c>
+      <c r="FD55">
+        <v>0</v>
+      </c>
+      <c r="FE55" t="s">
+        <v>212</v>
+      </c>
+      <c r="FF55">
+        <v>0</v>
+      </c>
+      <c r="FG55">
+        <v>1</v>
+      </c>
+      <c r="FH55">
+        <v>1000000</v>
+      </c>
+      <c r="FI55">
+        <v>100000</v>
+      </c>
+      <c r="FJ55">
+        <v>10</v>
+      </c>
+      <c r="FK55" t="s">
+        <v>221</v>
+      </c>
+      <c r="FL55" t="s">
+        <v>223</v>
+      </c>
+      <c r="FM55" t="s">
+        <v>225</v>
+      </c>
+      <c r="FN55">
+        <v>12</v>
+      </c>
+      <c r="FO55" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="56" spans="1:171" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>60</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>367</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E56" t="s">
+        <v>252</v>
+      </c>
+      <c r="F56" t="s">
+        <v>254</v>
+      </c>
+      <c r="G56" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56" t="s">
+        <v>343</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K56" t="s">
+        <v>255</v>
+      </c>
+      <c r="L56">
+        <v>10000000000</v>
+      </c>
+      <c r="M56" t="s">
+        <v>14</v>
+      </c>
+      <c r="N56">
+        <v>1995</v>
+      </c>
+      <c r="O56">
+        <v>10103</v>
+      </c>
+      <c r="P56">
+        <v>413514512</v>
+      </c>
+      <c r="Q56">
+        <v>1213</v>
+      </c>
+      <c r="R56" t="s">
+        <v>20</v>
+      </c>
+      <c r="S56" t="s">
+        <v>230</v>
+      </c>
+      <c r="T56" t="s">
+        <v>231</v>
+      </c>
+      <c r="U56" t="s">
+        <v>232</v>
+      </c>
+      <c r="V56">
+        <v>65145</v>
+      </c>
+      <c r="W56" t="s">
+        <v>26</v>
+      </c>
+      <c r="X56" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y56" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z56">
+        <v>1</v>
+      </c>
+      <c r="AA56">
+        <v>62</v>
+      </c>
+      <c r="AB56">
+        <v>89773662555</v>
+      </c>
+      <c r="AC56">
+        <v>23455</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE56">
+        <v>3345434656</v>
+      </c>
+      <c r="AF56">
+        <v>56643</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ56" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK56" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN56" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO56" t="s">
+        <v>233</v>
+      </c>
+      <c r="AP56" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ56" t="s">
+        <v>234</v>
+      </c>
+      <c r="AR56" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS56" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT56" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU56" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV56" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW56" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX56" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY56" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ56" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA56" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB56" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC56">
+        <v>11530</v>
+      </c>
+      <c r="BD56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE56" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF56" t="s">
+        <v>236</v>
+      </c>
+      <c r="BP56" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ56" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR56">
+        <v>15418</v>
+      </c>
+      <c r="BS56" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT56" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU56" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BV56" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW56" t="s">
+        <v>88</v>
+      </c>
+      <c r="BX56" t="s">
+        <v>90</v>
+      </c>
+      <c r="BY56" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ56" t="s">
+        <v>57</v>
+      </c>
+      <c r="CA56" t="s">
+        <v>95</v>
+      </c>
+      <c r="CB56">
+        <v>2343235657</v>
+      </c>
+      <c r="CC56" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD56" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CE56" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF56" t="s">
+        <v>57</v>
+      </c>
+      <c r="CG56" t="s">
+        <v>105</v>
+      </c>
+      <c r="CH56" t="s">
+        <v>107</v>
+      </c>
+      <c r="CI56">
+        <v>15417</v>
+      </c>
+      <c r="CJ56">
+        <v>62</v>
+      </c>
+      <c r="CK56">
+        <v>83873594727</v>
+      </c>
+      <c r="CL56" t="s">
+        <v>112</v>
+      </c>
+      <c r="CM56" t="s">
+        <v>114</v>
+      </c>
+      <c r="CN56" t="s">
+        <v>57</v>
+      </c>
+      <c r="CO56" t="s">
+        <v>57</v>
+      </c>
+      <c r="CP56" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CQ56" t="s">
+        <v>120</v>
+      </c>
+      <c r="CR56" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CS56" t="s">
+        <v>48</v>
+      </c>
+      <c r="CT56" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="CU56" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="CV56" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="CW56" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="CX56" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CY56" s="1">
+        <v>2</v>
+      </c>
+      <c r="CZ56" s="1">
+        <v>1</v>
+      </c>
+      <c r="DA56" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="DB56" t="s">
+        <v>129</v>
+      </c>
+      <c r="DC56" t="s">
+        <v>131</v>
+      </c>
+      <c r="DD56">
+        <v>11111111111</v>
+      </c>
+      <c r="DE56">
+        <v>11111111111</v>
+      </c>
+      <c r="DF56" t="s">
+        <v>135</v>
+      </c>
+      <c r="DG56" t="s">
+        <v>137</v>
+      </c>
+      <c r="DH56" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="DI56">
+        <v>10000000</v>
+      </c>
+      <c r="DJ56">
+        <v>10000000</v>
+      </c>
+      <c r="DK56">
+        <v>10000000</v>
+      </c>
+      <c r="DL56">
+        <v>11111111111</v>
+      </c>
+      <c r="DM56" t="s">
+        <v>145</v>
+      </c>
+      <c r="DN56" t="s">
+        <v>147</v>
+      </c>
+      <c r="DO56">
+        <v>123</v>
+      </c>
+      <c r="DP56" t="s">
+        <v>384</v>
+      </c>
+      <c r="DQ56" t="s">
+        <v>57</v>
+      </c>
+      <c r="DR56" t="s">
+        <v>153</v>
+      </c>
+      <c r="DS56">
+        <v>11111111111</v>
+      </c>
+      <c r="DT56" t="s">
+        <v>156</v>
+      </c>
+      <c r="DU56" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="DV56" t="s">
+        <v>159</v>
+      </c>
+      <c r="DW56" t="s">
+        <v>161</v>
+      </c>
+      <c r="DX56" t="s">
+        <v>215</v>
+      </c>
+      <c r="DY56" t="s">
+        <v>163</v>
+      </c>
+      <c r="DZ56" t="s">
+        <v>165</v>
+      </c>
+      <c r="EA56" t="s">
+        <v>167</v>
+      </c>
+      <c r="EB56" t="s">
+        <v>385</v>
+      </c>
+      <c r="EC56" t="s">
+        <v>366</v>
+      </c>
+      <c r="ED56" t="s">
+        <v>172</v>
+      </c>
+      <c r="EE56">
+        <v>2020</v>
+      </c>
+      <c r="EF56" t="s">
+        <v>175</v>
+      </c>
+      <c r="EG56">
+        <v>1111111111</v>
+      </c>
+      <c r="EH56">
+        <v>1111111111</v>
+      </c>
+      <c r="EI56" t="s">
+        <v>179</v>
+      </c>
+      <c r="EJ56">
+        <v>1111111111</v>
+      </c>
+      <c r="EK56" t="s">
+        <v>182</v>
+      </c>
+      <c r="EL56" t="s">
+        <v>184</v>
+      </c>
+      <c r="EM56" t="s">
+        <v>186</v>
+      </c>
+      <c r="EN56">
+        <v>550000000</v>
+      </c>
+      <c r="EO56">
+        <v>55000000</v>
+      </c>
+      <c r="EP56">
+        <v>10</v>
+      </c>
+      <c r="EQ56">
+        <v>12</v>
+      </c>
+      <c r="ER56">
+        <v>6</v>
+      </c>
+      <c r="ES56">
+        <v>6</v>
+      </c>
+      <c r="ET56">
+        <v>0.5</v>
+      </c>
+      <c r="EU56">
+        <v>100000</v>
+      </c>
+      <c r="EV56" t="s">
+        <v>196</v>
+      </c>
+      <c r="EW56" t="s">
+        <v>198</v>
+      </c>
+      <c r="EX56" t="s">
+        <v>200</v>
+      </c>
+      <c r="EY56" t="s">
+        <v>202</v>
+      </c>
+      <c r="EZ56" t="s">
+        <v>204</v>
+      </c>
+      <c r="FA56" t="s">
+        <v>206</v>
+      </c>
+      <c r="FB56">
+        <v>0</v>
+      </c>
+      <c r="FC56" t="s">
+        <v>209</v>
+      </c>
+      <c r="FD56">
+        <v>0</v>
+      </c>
+      <c r="FE56" t="s">
+        <v>212</v>
+      </c>
+      <c r="FF56">
+        <v>0</v>
+      </c>
+      <c r="FG56">
+        <v>1</v>
+      </c>
+      <c r="FH56">
+        <v>1000000</v>
+      </c>
+      <c r="FI56">
+        <v>100000</v>
+      </c>
+      <c r="FJ56">
+        <v>10</v>
+      </c>
+      <c r="FK56" t="s">
+        <v>221</v>
+      </c>
+      <c r="FL56" t="s">
+        <v>223</v>
+      </c>
+      <c r="FM56" t="s">
+        <v>225</v>
+      </c>
+      <c r="FN56">
+        <v>12</v>
+      </c>
+      <c r="FO56" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="57" spans="1:171" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>61</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>367</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E57" t="s">
+        <v>252</v>
+      </c>
+      <c r="F57" t="s">
+        <v>254</v>
+      </c>
+      <c r="G57" t="s">
+        <v>7</v>
+      </c>
+      <c r="H57" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I57" t="s">
+        <v>345</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K57" t="s">
+        <v>255</v>
+      </c>
+      <c r="L57">
+        <v>10000000000</v>
+      </c>
+      <c r="M57" t="s">
+        <v>14</v>
+      </c>
+      <c r="N57">
+        <v>1995</v>
+      </c>
+      <c r="O57">
+        <v>10103</v>
+      </c>
+      <c r="P57">
+        <v>413514512</v>
+      </c>
+      <c r="Q57">
+        <v>1213</v>
+      </c>
+      <c r="R57" t="s">
+        <v>20</v>
+      </c>
+      <c r="S57" t="s">
+        <v>230</v>
+      </c>
+      <c r="T57" t="s">
+        <v>231</v>
+      </c>
+      <c r="U57" t="s">
+        <v>232</v>
+      </c>
+      <c r="V57">
+        <v>65145</v>
+      </c>
+      <c r="W57" t="s">
+        <v>26</v>
+      </c>
+      <c r="X57" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y57" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z57">
+        <v>1</v>
+      </c>
+      <c r="AA57">
+        <v>62</v>
+      </c>
+      <c r="AB57">
+        <v>89773662555</v>
+      </c>
+      <c r="AC57">
+        <v>23455</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE57">
+        <v>3345434656</v>
+      </c>
+      <c r="AF57">
+        <v>56643</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ57" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK57" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN57" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO57" t="s">
+        <v>233</v>
+      </c>
+      <c r="AP57" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ57" t="s">
+        <v>234</v>
+      </c>
+      <c r="AR57" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS57" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT57" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU57" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV57" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW57" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX57" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY57" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ57" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA57" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB57" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC57">
+        <v>11530</v>
+      </c>
+      <c r="BD57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE57" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF57" t="s">
+        <v>236</v>
+      </c>
+      <c r="BP57" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ57" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR57">
+        <v>15418</v>
+      </c>
+      <c r="BS57" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT57" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU57" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BV57" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW57" t="s">
+        <v>88</v>
+      </c>
+      <c r="BX57" t="s">
+        <v>90</v>
+      </c>
+      <c r="BY57" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ57" t="s">
+        <v>57</v>
+      </c>
+      <c r="CA57" t="s">
+        <v>95</v>
+      </c>
+      <c r="CB57">
+        <v>2343235657</v>
+      </c>
+      <c r="CC57" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD57" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CE57" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF57" t="s">
+        <v>57</v>
+      </c>
+      <c r="CG57" t="s">
+        <v>105</v>
+      </c>
+      <c r="CH57" t="s">
+        <v>107</v>
+      </c>
+      <c r="CI57">
+        <v>15417</v>
+      </c>
+      <c r="CJ57">
+        <v>62</v>
+      </c>
+      <c r="CK57">
+        <v>83873594727</v>
+      </c>
+      <c r="CL57" t="s">
+        <v>112</v>
+      </c>
+      <c r="CM57" t="s">
+        <v>114</v>
+      </c>
+      <c r="CN57" t="s">
+        <v>57</v>
+      </c>
+      <c r="CO57" t="s">
+        <v>57</v>
+      </c>
+      <c r="CP57" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CQ57" t="s">
+        <v>120</v>
+      </c>
+      <c r="CR57" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CS57" t="s">
+        <v>48</v>
+      </c>
+      <c r="CT57" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="CU57" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="CV57" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="CW57" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="CX57" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="CY57" s="1">
+        <v>2</v>
+      </c>
+      <c r="CZ57" s="1">
+        <v>1</v>
+      </c>
+      <c r="DA57" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="DB57" t="s">
+        <v>129</v>
+      </c>
+      <c r="DC57" t="s">
+        <v>131</v>
+      </c>
+      <c r="DD57">
+        <v>11111111111</v>
+      </c>
+      <c r="DE57">
+        <v>11111111111</v>
+      </c>
+      <c r="DF57" t="s">
+        <v>135</v>
+      </c>
+      <c r="DG57" t="s">
+        <v>137</v>
+      </c>
+      <c r="DH57" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="DI57">
+        <v>10000000</v>
+      </c>
+      <c r="DJ57">
+        <v>10000000</v>
+      </c>
+      <c r="DK57">
+        <v>10000000</v>
+      </c>
+      <c r="DL57">
+        <v>11111111111</v>
+      </c>
+      <c r="DM57" t="s">
+        <v>145</v>
+      </c>
+      <c r="DN57" t="s">
+        <v>147</v>
+      </c>
+      <c r="DO57">
+        <v>123</v>
+      </c>
+      <c r="DP57" t="s">
+        <v>384</v>
+      </c>
+      <c r="DQ57" t="s">
+        <v>57</v>
+      </c>
+      <c r="DR57" t="s">
+        <v>153</v>
+      </c>
+      <c r="DS57">
+        <v>11111111111</v>
+      </c>
+      <c r="DT57" t="s">
+        <v>156</v>
+      </c>
+      <c r="DU57" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="DV57" t="s">
+        <v>159</v>
+      </c>
+      <c r="DW57" t="s">
+        <v>161</v>
+      </c>
+      <c r="DX57" t="s">
+        <v>215</v>
+      </c>
+      <c r="DY57" t="s">
+        <v>163</v>
+      </c>
+      <c r="DZ57" t="s">
+        <v>165</v>
+      </c>
+      <c r="EA57" t="s">
+        <v>167</v>
+      </c>
+      <c r="EB57" t="s">
+        <v>385</v>
+      </c>
+      <c r="EC57" t="s">
+        <v>366</v>
+      </c>
+      <c r="ED57" t="s">
+        <v>172</v>
+      </c>
+      <c r="EE57">
+        <v>2020</v>
+      </c>
+      <c r="EF57" t="s">
+        <v>175</v>
+      </c>
+      <c r="EG57">
+        <v>1111111111</v>
+      </c>
+      <c r="EH57">
+        <v>1111111111</v>
+      </c>
+      <c r="EI57" t="s">
+        <v>179</v>
+      </c>
+      <c r="EJ57">
+        <v>1111111111</v>
+      </c>
+      <c r="EK57" t="s">
+        <v>182</v>
+      </c>
+      <c r="EL57" t="s">
+        <v>184</v>
+      </c>
+      <c r="EM57" t="s">
+        <v>186</v>
+      </c>
+      <c r="EN57">
+        <v>550000000</v>
+      </c>
+      <c r="EO57">
+        <v>55000000</v>
+      </c>
+      <c r="EP57">
+        <v>10</v>
+      </c>
+      <c r="EQ57">
+        <v>12</v>
+      </c>
+      <c r="ER57">
+        <v>6</v>
+      </c>
+      <c r="ES57">
+        <v>6</v>
+      </c>
+      <c r="ET57">
+        <v>0.5</v>
+      </c>
+      <c r="EU57">
+        <v>100000</v>
+      </c>
+      <c r="EV57" t="s">
+        <v>196</v>
+      </c>
+      <c r="EW57" t="s">
+        <v>198</v>
+      </c>
+      <c r="EX57" t="s">
+        <v>200</v>
+      </c>
+      <c r="EY57" t="s">
+        <v>202</v>
+      </c>
+      <c r="EZ57" t="s">
+        <v>204</v>
+      </c>
+      <c r="FA57" t="s">
+        <v>206</v>
+      </c>
+      <c r="FB57">
+        <v>0</v>
+      </c>
+      <c r="FC57" t="s">
+        <v>209</v>
+      </c>
+      <c r="FD57">
+        <v>0</v>
+      </c>
+      <c r="FE57" t="s">
+        <v>212</v>
+      </c>
+      <c r="FF57">
+        <v>0</v>
+      </c>
+      <c r="FG57">
+        <v>1</v>
+      </c>
+      <c r="FH57">
+        <v>1000000</v>
+      </c>
+      <c r="FI57">
+        <v>100000</v>
+      </c>
+      <c r="FJ57">
+        <v>10</v>
+      </c>
+      <c r="FK57" t="s">
+        <v>221</v>
+      </c>
+      <c r="FL57" t="s">
+        <v>223</v>
+      </c>
+      <c r="FM57" t="s">
+        <v>225</v>
+      </c>
+      <c r="FN57">
+        <v>12</v>
+      </c>
+      <c r="FO57" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="58" spans="1:171" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>62</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>367</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E58" t="s">
+        <v>252</v>
+      </c>
+      <c r="F58" t="s">
+        <v>254</v>
+      </c>
+      <c r="G58" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K58" t="s">
+        <v>255</v>
+      </c>
+      <c r="L58">
+        <v>10000000000</v>
+      </c>
+      <c r="M58" t="s">
+        <v>14</v>
+      </c>
+      <c r="N58">
+        <v>1995</v>
+      </c>
+      <c r="O58">
+        <v>10103</v>
+      </c>
+      <c r="P58">
+        <v>413514512</v>
+      </c>
+      <c r="Q58">
+        <v>1213</v>
+      </c>
+      <c r="R58" t="s">
+        <v>20</v>
+      </c>
+      <c r="S58" t="s">
+        <v>230</v>
+      </c>
+      <c r="T58" t="s">
+        <v>231</v>
+      </c>
+      <c r="U58" t="s">
+        <v>232</v>
+      </c>
+      <c r="V58">
+        <v>65145</v>
+      </c>
+      <c r="W58" t="s">
+        <v>26</v>
+      </c>
+      <c r="X58" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y58" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z58">
+        <v>1</v>
+      </c>
+      <c r="AA58">
+        <v>62</v>
+      </c>
+      <c r="AB58">
+        <v>89773662555</v>
+      </c>
+      <c r="AC58">
+        <v>23455</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE58">
+        <v>3345434656</v>
+      </c>
+      <c r="AF58">
+        <v>56643</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ58" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK58" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN58" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO58" t="s">
+        <v>233</v>
+      </c>
+      <c r="AP58" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ58" t="s">
+        <v>234</v>
+      </c>
+      <c r="AR58" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS58" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT58" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU58" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV58" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW58" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX58" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY58" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ58" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA58" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB58" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC58">
+        <v>11530</v>
+      </c>
+      <c r="BD58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE58" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF58" t="s">
+        <v>236</v>
+      </c>
+      <c r="BP58" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ58" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR58">
+        <v>15418</v>
+      </c>
+      <c r="BS58" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT58" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU58" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BV58" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW58" t="s">
+        <v>88</v>
+      </c>
+      <c r="BX58" t="s">
+        <v>90</v>
+      </c>
+      <c r="BY58" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ58" t="s">
+        <v>57</v>
+      </c>
+      <c r="CA58" t="s">
+        <v>95</v>
+      </c>
+      <c r="CB58">
+        <v>2343235657</v>
+      </c>
+      <c r="CC58" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD58" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CE58" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF58" t="s">
+        <v>57</v>
+      </c>
+      <c r="CG58" t="s">
+        <v>105</v>
+      </c>
+      <c r="CH58" t="s">
+        <v>107</v>
+      </c>
+      <c r="CI58">
+        <v>15417</v>
+      </c>
+      <c r="CJ58">
+        <v>62</v>
+      </c>
+      <c r="CK58">
+        <v>83873594727</v>
+      </c>
+      <c r="CL58" t="s">
+        <v>112</v>
+      </c>
+      <c r="CM58" t="s">
+        <v>114</v>
+      </c>
+      <c r="CN58" t="s">
+        <v>57</v>
+      </c>
+      <c r="CO58" t="s">
+        <v>57</v>
+      </c>
+      <c r="CP58" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CQ58" t="s">
+        <v>120</v>
+      </c>
+      <c r="CR58" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CS58" t="s">
+        <v>48</v>
+      </c>
+      <c r="CT58" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="CU58" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="CV58" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="CW58" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="CX58" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="CY58" s="1">
+        <v>2</v>
+      </c>
+      <c r="CZ58" s="1">
+        <v>1</v>
+      </c>
+      <c r="DA58" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="DB58" t="s">
+        <v>129</v>
+      </c>
+      <c r="DC58" t="s">
+        <v>131</v>
+      </c>
+      <c r="DD58">
+        <v>11111111111</v>
+      </c>
+      <c r="DE58">
+        <v>11111111111</v>
+      </c>
+      <c r="DF58" t="s">
+        <v>135</v>
+      </c>
+      <c r="DG58" t="s">
+        <v>137</v>
+      </c>
+      <c r="DH58" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="DI58">
+        <v>10000000</v>
+      </c>
+      <c r="DJ58">
+        <v>10000000</v>
+      </c>
+      <c r="DK58">
+        <v>10000000</v>
+      </c>
+      <c r="DL58">
+        <v>11111111111</v>
+      </c>
+      <c r="DM58" t="s">
+        <v>145</v>
+      </c>
+      <c r="DN58" t="s">
+        <v>147</v>
+      </c>
+      <c r="DO58">
+        <v>123</v>
+      </c>
+      <c r="DP58" t="s">
+        <v>384</v>
+      </c>
+      <c r="DQ58" t="s">
+        <v>57</v>
+      </c>
+      <c r="DR58" t="s">
+        <v>153</v>
+      </c>
+      <c r="DS58">
+        <v>11111111111</v>
+      </c>
+      <c r="DT58" t="s">
+        <v>156</v>
+      </c>
+      <c r="DU58" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="DV58" t="s">
+        <v>159</v>
+      </c>
+      <c r="DW58" t="s">
+        <v>161</v>
+      </c>
+      <c r="DX58" t="s">
+        <v>215</v>
+      </c>
+      <c r="DY58" t="s">
+        <v>163</v>
+      </c>
+      <c r="DZ58" t="s">
+        <v>165</v>
+      </c>
+      <c r="EA58" t="s">
+        <v>167</v>
+      </c>
+      <c r="EB58" t="s">
+        <v>385</v>
+      </c>
+      <c r="EC58" t="s">
+        <v>366</v>
+      </c>
+      <c r="ED58" t="s">
+        <v>172</v>
+      </c>
+      <c r="EE58">
+        <v>2020</v>
+      </c>
+      <c r="EF58" t="s">
+        <v>175</v>
+      </c>
+      <c r="EG58">
+        <v>1111111111</v>
+      </c>
+      <c r="EH58">
+        <v>1111111111</v>
+      </c>
+      <c r="EI58" t="s">
+        <v>179</v>
+      </c>
+      <c r="EJ58">
+        <v>1111111111</v>
+      </c>
+      <c r="EK58" t="s">
+        <v>182</v>
+      </c>
+      <c r="EL58" t="s">
+        <v>184</v>
+      </c>
+      <c r="EM58" t="s">
+        <v>186</v>
+      </c>
+      <c r="EN58">
+        <v>550000000</v>
+      </c>
+      <c r="EO58">
+        <v>55000000</v>
+      </c>
+      <c r="EP58">
+        <v>10</v>
+      </c>
+      <c r="EQ58">
+        <v>12</v>
+      </c>
+      <c r="ER58">
+        <v>6</v>
+      </c>
+      <c r="ES58">
+        <v>6</v>
+      </c>
+      <c r="ET58">
+        <v>0.5</v>
+      </c>
+      <c r="EU58">
+        <v>100000</v>
+      </c>
+      <c r="EV58" t="s">
+        <v>196</v>
+      </c>
+      <c r="EW58" t="s">
+        <v>198</v>
+      </c>
+      <c r="EX58" t="s">
+        <v>200</v>
+      </c>
+      <c r="EY58" t="s">
+        <v>202</v>
+      </c>
+      <c r="EZ58" t="s">
+        <v>204</v>
+      </c>
+      <c r="FA58" t="s">
+        <v>206</v>
+      </c>
+      <c r="FB58">
+        <v>0</v>
+      </c>
+      <c r="FC58" t="s">
+        <v>209</v>
+      </c>
+      <c r="FD58">
+        <v>0</v>
+      </c>
+      <c r="FE58" t="s">
+        <v>212</v>
+      </c>
+      <c r="FF58">
+        <v>0</v>
+      </c>
+      <c r="FG58">
+        <v>1</v>
+      </c>
+      <c r="FH58">
+        <v>1000000</v>
+      </c>
+      <c r="FI58">
+        <v>100000</v>
+      </c>
+      <c r="FJ58">
+        <v>10</v>
+      </c>
+      <c r="FK58" t="s">
+        <v>221</v>
+      </c>
+      <c r="FL58" t="s">
+        <v>223</v>
+      </c>
+      <c r="FM58" t="s">
+        <v>225</v>
+      </c>
+      <c r="FN58">
+        <v>12</v>
+      </c>
+      <c r="FO58" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="59" spans="1:171" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>63</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>367</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E59" t="s">
+        <v>252</v>
+      </c>
+      <c r="F59" t="s">
+        <v>254</v>
+      </c>
+      <c r="G59" t="s">
+        <v>7</v>
+      </c>
+      <c r="H59" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I59" t="s">
+        <v>349</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K59" t="s">
+        <v>255</v>
+      </c>
+      <c r="L59">
+        <v>10000000000</v>
+      </c>
+      <c r="M59" t="s">
+        <v>14</v>
+      </c>
+      <c r="N59">
+        <v>1995</v>
+      </c>
+      <c r="O59">
+        <v>10103</v>
+      </c>
+      <c r="P59">
+        <v>413514512</v>
+      </c>
+      <c r="Q59">
+        <v>1213</v>
+      </c>
+      <c r="R59" t="s">
+        <v>20</v>
+      </c>
+      <c r="S59" t="s">
+        <v>230</v>
+      </c>
+      <c r="T59" t="s">
+        <v>231</v>
+      </c>
+      <c r="U59" t="s">
+        <v>232</v>
+      </c>
+      <c r="V59">
+        <v>65145</v>
+      </c>
+      <c r="W59" t="s">
+        <v>26</v>
+      </c>
+      <c r="X59" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y59" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z59">
+        <v>1</v>
+      </c>
+      <c r="AA59">
+        <v>62</v>
+      </c>
+      <c r="AB59">
+        <v>89773662555</v>
+      </c>
+      <c r="AC59">
+        <v>23455</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE59">
+        <v>3345434656</v>
+      </c>
+      <c r="AF59">
+        <v>56643</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ59" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK59" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM59" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN59" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO59" t="s">
+        <v>233</v>
+      </c>
+      <c r="AP59" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ59" t="s">
+        <v>234</v>
+      </c>
+      <c r="AR59" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS59" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT59" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU59" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV59" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW59" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX59" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY59" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ59" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA59" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB59" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC59">
+        <v>11530</v>
+      </c>
+      <c r="BD59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE59" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF59" t="s">
+        <v>236</v>
+      </c>
+      <c r="BP59" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ59" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR59">
+        <v>15418</v>
+      </c>
+      <c r="BS59" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT59" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU59" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BV59" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW59" t="s">
+        <v>88</v>
+      </c>
+      <c r="BX59" t="s">
+        <v>90</v>
+      </c>
+      <c r="BY59" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ59" t="s">
+        <v>57</v>
+      </c>
+      <c r="CA59" t="s">
+        <v>95</v>
+      </c>
+      <c r="CB59">
+        <v>2343235657</v>
+      </c>
+      <c r="CC59" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD59" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CE59" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF59" t="s">
+        <v>57</v>
+      </c>
+      <c r="CG59" t="s">
+        <v>105</v>
+      </c>
+      <c r="CH59" t="s">
+        <v>107</v>
+      </c>
+      <c r="CI59">
+        <v>15417</v>
+      </c>
+      <c r="CJ59">
+        <v>62</v>
+      </c>
+      <c r="CK59">
+        <v>83873594727</v>
+      </c>
+      <c r="CL59" t="s">
+        <v>112</v>
+      </c>
+      <c r="CM59" t="s">
+        <v>114</v>
+      </c>
+      <c r="CN59" t="s">
+        <v>57</v>
+      </c>
+      <c r="CO59" t="s">
+        <v>57</v>
+      </c>
+      <c r="CP59" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CQ59" t="s">
+        <v>120</v>
+      </c>
+      <c r="CR59" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CS59" t="s">
+        <v>48</v>
+      </c>
+      <c r="CT59" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="CU59" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="CV59" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="CW59" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="CX59" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CY59" s="1">
+        <v>2</v>
+      </c>
+      <c r="CZ59" s="1">
+        <v>1</v>
+      </c>
+      <c r="DA59" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="DB59" t="s">
+        <v>129</v>
+      </c>
+      <c r="DC59" t="s">
+        <v>131</v>
+      </c>
+      <c r="DD59">
+        <v>11111111111</v>
+      </c>
+      <c r="DE59">
+        <v>11111111111</v>
+      </c>
+      <c r="DF59" t="s">
+        <v>135</v>
+      </c>
+      <c r="DG59" t="s">
+        <v>137</v>
+      </c>
+      <c r="DH59" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="DI59">
+        <v>10000000</v>
+      </c>
+      <c r="DJ59">
+        <v>10000000</v>
+      </c>
+      <c r="DK59">
+        <v>10000000</v>
+      </c>
+      <c r="DL59">
+        <v>11111111111</v>
+      </c>
+      <c r="DM59" t="s">
+        <v>145</v>
+      </c>
+      <c r="DN59" t="s">
+        <v>147</v>
+      </c>
+      <c r="DO59">
+        <v>123</v>
+      </c>
+      <c r="DP59" t="s">
+        <v>384</v>
+      </c>
+      <c r="DQ59" t="s">
+        <v>57</v>
+      </c>
+      <c r="DR59" t="s">
+        <v>153</v>
+      </c>
+      <c r="DS59">
+        <v>11111111111</v>
+      </c>
+      <c r="DT59" t="s">
+        <v>156</v>
+      </c>
+      <c r="DU59" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="DV59" t="s">
+        <v>159</v>
+      </c>
+      <c r="DW59" t="s">
+        <v>161</v>
+      </c>
+      <c r="DX59" t="s">
+        <v>215</v>
+      </c>
+      <c r="DY59" t="s">
+        <v>163</v>
+      </c>
+      <c r="DZ59" t="s">
+        <v>165</v>
+      </c>
+      <c r="EA59" t="s">
+        <v>167</v>
+      </c>
+      <c r="EB59" t="s">
+        <v>385</v>
+      </c>
+      <c r="EC59" t="s">
+        <v>366</v>
+      </c>
+      <c r="ED59" t="s">
+        <v>172</v>
+      </c>
+      <c r="EE59">
+        <v>2020</v>
+      </c>
+      <c r="EF59" t="s">
+        <v>175</v>
+      </c>
+      <c r="EG59">
+        <v>1111111111</v>
+      </c>
+      <c r="EH59">
+        <v>1111111111</v>
+      </c>
+      <c r="EI59" t="s">
+        <v>179</v>
+      </c>
+      <c r="EJ59">
+        <v>1111111111</v>
+      </c>
+      <c r="EK59" t="s">
+        <v>182</v>
+      </c>
+      <c r="EL59" t="s">
+        <v>184</v>
+      </c>
+      <c r="EM59" t="s">
+        <v>186</v>
+      </c>
+      <c r="EN59">
+        <v>550000000</v>
+      </c>
+      <c r="EO59">
+        <v>55000000</v>
+      </c>
+      <c r="EP59">
+        <v>10</v>
+      </c>
+      <c r="EQ59">
+        <v>12</v>
+      </c>
+      <c r="ER59">
+        <v>6</v>
+      </c>
+      <c r="ES59">
+        <v>6</v>
+      </c>
+      <c r="ET59">
+        <v>0.5</v>
+      </c>
+      <c r="EU59">
+        <v>100000</v>
+      </c>
+      <c r="EV59" t="s">
+        <v>196</v>
+      </c>
+      <c r="EW59" t="s">
+        <v>198</v>
+      </c>
+      <c r="EX59" t="s">
+        <v>200</v>
+      </c>
+      <c r="EY59" t="s">
+        <v>202</v>
+      </c>
+      <c r="EZ59" t="s">
+        <v>204</v>
+      </c>
+      <c r="FA59" t="s">
+        <v>206</v>
+      </c>
+      <c r="FB59">
+        <v>0</v>
+      </c>
+      <c r="FC59" t="s">
+        <v>209</v>
+      </c>
+      <c r="FD59">
+        <v>0</v>
+      </c>
+      <c r="FE59" t="s">
+        <v>212</v>
+      </c>
+      <c r="FF59">
+        <v>0</v>
+      </c>
+      <c r="FG59">
+        <v>1</v>
+      </c>
+      <c r="FH59">
+        <v>1000000</v>
+      </c>
+      <c r="FI59">
+        <v>100000</v>
+      </c>
+      <c r="FJ59">
+        <v>10</v>
+      </c>
+      <c r="FK59" t="s">
+        <v>221</v>
+      </c>
+      <c r="FL59" t="s">
+        <v>223</v>
+      </c>
+      <c r="FM59" t="s">
+        <v>225</v>
+      </c>
+      <c r="FN59">
+        <v>12</v>
+      </c>
+      <c r="FO59" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="60" spans="1:171" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>64</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>367</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E60" t="s">
+        <v>252</v>
+      </c>
+      <c r="F60" t="s">
+        <v>254</v>
+      </c>
+      <c r="G60" t="s">
+        <v>7</v>
+      </c>
+      <c r="H60" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I60" t="s">
+        <v>351</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K60" t="s">
+        <v>255</v>
+      </c>
+      <c r="L60">
+        <v>10000000000</v>
+      </c>
+      <c r="M60" t="s">
+        <v>14</v>
+      </c>
+      <c r="N60">
+        <v>1995</v>
+      </c>
+      <c r="O60">
+        <v>10103</v>
+      </c>
+      <c r="P60">
+        <v>413514512</v>
+      </c>
+      <c r="Q60">
+        <v>1213</v>
+      </c>
+      <c r="R60" t="s">
+        <v>20</v>
+      </c>
+      <c r="S60" t="s">
+        <v>230</v>
+      </c>
+      <c r="T60" t="s">
+        <v>231</v>
+      </c>
+      <c r="U60" t="s">
+        <v>232</v>
+      </c>
+      <c r="V60">
+        <v>65145</v>
+      </c>
+      <c r="W60" t="s">
+        <v>26</v>
+      </c>
+      <c r="X60" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y60" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z60">
+        <v>1</v>
+      </c>
+      <c r="AA60">
+        <v>62</v>
+      </c>
+      <c r="AB60">
+        <v>89773662555</v>
+      </c>
+      <c r="AC60">
+        <v>23455</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE60">
+        <v>3345434656</v>
+      </c>
+      <c r="AF60">
+        <v>56643</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ60" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK60" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN60" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO60" t="s">
+        <v>233</v>
+      </c>
+      <c r="AP60" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ60" t="s">
+        <v>234</v>
+      </c>
+      <c r="AR60" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS60" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT60" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU60" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV60" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW60" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX60" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY60" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ60" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA60" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB60" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC60">
+        <v>11530</v>
+      </c>
+      <c r="BD60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE60" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF60" t="s">
+        <v>236</v>
+      </c>
+      <c r="BP60" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ60" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR60">
+        <v>15418</v>
+      </c>
+      <c r="BS60" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT60" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU60" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BV60" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW60" t="s">
+        <v>88</v>
+      </c>
+      <c r="BX60" t="s">
+        <v>90</v>
+      </c>
+      <c r="BY60" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ60" t="s">
+        <v>57</v>
+      </c>
+      <c r="CA60" t="s">
+        <v>95</v>
+      </c>
+      <c r="CB60">
+        <v>2343235657</v>
+      </c>
+      <c r="CC60" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD60" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CE60" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF60" t="s">
+        <v>57</v>
+      </c>
+      <c r="CG60" t="s">
+        <v>105</v>
+      </c>
+      <c r="CH60" t="s">
+        <v>107</v>
+      </c>
+      <c r="CI60">
+        <v>15417</v>
+      </c>
+      <c r="CJ60">
+        <v>62</v>
+      </c>
+      <c r="CK60">
+        <v>83873594727</v>
+      </c>
+      <c r="CL60" t="s">
+        <v>112</v>
+      </c>
+      <c r="CM60" t="s">
+        <v>114</v>
+      </c>
+      <c r="CN60" t="s">
+        <v>57</v>
+      </c>
+      <c r="CO60" t="s">
+        <v>57</v>
+      </c>
+      <c r="CP60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CQ60" t="s">
+        <v>120</v>
+      </c>
+      <c r="CR60" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CS60" t="s">
+        <v>48</v>
+      </c>
+      <c r="CT60" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="CU60" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="CV60" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="CW60" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="CX60" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="CY60" s="1">
+        <v>2</v>
+      </c>
+      <c r="CZ60" s="1">
+        <v>1</v>
+      </c>
+      <c r="DA60" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="DB60" t="s">
+        <v>129</v>
+      </c>
+      <c r="DC60" t="s">
+        <v>131</v>
+      </c>
+      <c r="DD60">
+        <v>11111111111</v>
+      </c>
+      <c r="DE60">
+        <v>11111111111</v>
+      </c>
+      <c r="DF60" t="s">
+        <v>135</v>
+      </c>
+      <c r="DG60" t="s">
+        <v>137</v>
+      </c>
+      <c r="DH60" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="DI60">
+        <v>10000000</v>
+      </c>
+      <c r="DJ60">
+        <v>10000000</v>
+      </c>
+      <c r="DK60">
+        <v>10000000</v>
+      </c>
+      <c r="DL60">
+        <v>11111111111</v>
+      </c>
+      <c r="DM60" t="s">
+        <v>145</v>
+      </c>
+      <c r="DN60" t="s">
+        <v>147</v>
+      </c>
+      <c r="DO60">
+        <v>123</v>
+      </c>
+      <c r="DP60" t="s">
+        <v>384</v>
+      </c>
+      <c r="DQ60" t="s">
+        <v>57</v>
+      </c>
+      <c r="DR60" t="s">
+        <v>153</v>
+      </c>
+      <c r="DS60">
+        <v>11111111111</v>
+      </c>
+      <c r="DT60" t="s">
+        <v>156</v>
+      </c>
+      <c r="DU60" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="DV60" t="s">
+        <v>159</v>
+      </c>
+      <c r="DW60" t="s">
+        <v>161</v>
+      </c>
+      <c r="DX60" t="s">
+        <v>215</v>
+      </c>
+      <c r="DY60" t="s">
+        <v>163</v>
+      </c>
+      <c r="DZ60" t="s">
+        <v>165</v>
+      </c>
+      <c r="EA60" t="s">
+        <v>167</v>
+      </c>
+      <c r="EB60" t="s">
+        <v>385</v>
+      </c>
+      <c r="EC60" t="s">
+        <v>366</v>
+      </c>
+      <c r="ED60" t="s">
+        <v>172</v>
+      </c>
+      <c r="EE60">
+        <v>2020</v>
+      </c>
+      <c r="EF60" t="s">
+        <v>175</v>
+      </c>
+      <c r="EG60">
+        <v>1111111111</v>
+      </c>
+      <c r="EH60">
+        <v>1111111111</v>
+      </c>
+      <c r="EI60" t="s">
+        <v>179</v>
+      </c>
+      <c r="EJ60">
+        <v>1111111111</v>
+      </c>
+      <c r="EK60" t="s">
+        <v>182</v>
+      </c>
+      <c r="EL60" t="s">
+        <v>184</v>
+      </c>
+      <c r="EM60" t="s">
+        <v>186</v>
+      </c>
+      <c r="EN60">
+        <v>550000000</v>
+      </c>
+      <c r="EO60">
+        <v>55000000</v>
+      </c>
+      <c r="EP60">
+        <v>10</v>
+      </c>
+      <c r="EQ60">
+        <v>12</v>
+      </c>
+      <c r="ER60">
+        <v>6</v>
+      </c>
+      <c r="ES60">
+        <v>6</v>
+      </c>
+      <c r="ET60">
+        <v>0.5</v>
+      </c>
+      <c r="EU60">
+        <v>100000</v>
+      </c>
+      <c r="EV60" t="s">
+        <v>196</v>
+      </c>
+      <c r="EW60" t="s">
+        <v>198</v>
+      </c>
+      <c r="EX60" t="s">
+        <v>200</v>
+      </c>
+      <c r="EY60" t="s">
+        <v>202</v>
+      </c>
+      <c r="EZ60" t="s">
+        <v>204</v>
+      </c>
+      <c r="FA60" t="s">
+        <v>206</v>
+      </c>
+      <c r="FB60">
+        <v>0</v>
+      </c>
+      <c r="FC60" t="s">
+        <v>209</v>
+      </c>
+      <c r="FD60">
+        <v>0</v>
+      </c>
+      <c r="FE60" t="s">
+        <v>212</v>
+      </c>
+      <c r="FF60">
+        <v>0</v>
+      </c>
+      <c r="FG60">
+        <v>1</v>
+      </c>
+      <c r="FH60">
+        <v>1000000</v>
+      </c>
+      <c r="FI60">
+        <v>100000</v>
+      </c>
+      <c r="FJ60">
+        <v>10</v>
+      </c>
+      <c r="FK60" t="s">
+        <v>221</v>
+      </c>
+      <c r="FL60" t="s">
+        <v>223</v>
+      </c>
+      <c r="FM60" t="s">
+        <v>225</v>
+      </c>
+      <c r="FN60">
+        <v>12</v>
+      </c>
+      <c r="FO60" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="61" spans="1:171" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>65</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>367</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="J61" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K61" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="L61" s="11">
+        <v>10000000000</v>
+      </c>
+      <c r="M61" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N61" s="11">
+        <v>1995</v>
+      </c>
+      <c r="O61" s="11">
+        <v>10103</v>
+      </c>
+      <c r="P61" s="11">
+        <v>413514512</v>
+      </c>
+      <c r="Q61" s="11">
+        <v>1213</v>
+      </c>
+      <c r="R61" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="S61" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="T61" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="U61" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="V61" s="11">
+        <v>65145</v>
+      </c>
+      <c r="W61" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="X61" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y61" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z61" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA61" s="11">
+        <v>62</v>
+      </c>
+      <c r="AB61" s="11">
+        <v>89773662555</v>
+      </c>
+      <c r="AC61" s="11">
+        <v>23455</v>
+      </c>
+      <c r="AD61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE61" s="11">
+        <v>3345434656</v>
+      </c>
+      <c r="AF61" s="11">
+        <v>56643</v>
+      </c>
+      <c r="AG61" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH61" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI61" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ61" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK61" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="AL61" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM61" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN61" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO61" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="AP61" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ61" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="AR61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS61" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT61" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU61" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV61" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW61" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX61" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY61" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ61" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA61" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB61" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC61" s="11">
+        <v>11530</v>
+      </c>
+      <c r="BD61" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF61" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="BP61" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ61" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR61" s="11">
+        <v>15418</v>
+      </c>
+      <c r="BS61" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT61" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU61" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BV61" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW61" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="BX61" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="BY61" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="CA61" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="CB61" s="11">
+        <v>2343235657</v>
+      </c>
+      <c r="CC61" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD61" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="CE61" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="CG61" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="CH61" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="CI61" s="11">
+        <v>15417</v>
+      </c>
+      <c r="CJ61" s="11">
+        <v>62</v>
+      </c>
+      <c r="CK61" s="11">
+        <v>83873594727</v>
+      </c>
+      <c r="CL61" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="CM61" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="CN61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="CO61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="CP61" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="CQ61" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="CR61" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="CS61" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="CT61" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="CU61" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="CV61" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="CW61" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="CX61" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="CY61" s="12">
+        <v>2</v>
+      </c>
+      <c r="CZ61" s="12">
+        <v>1</v>
+      </c>
+      <c r="DA61" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="DB61" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="DC61" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="DD61" s="11">
+        <v>11111111111</v>
+      </c>
+      <c r="DE61" s="11">
+        <v>11111111111</v>
+      </c>
+      <c r="DF61" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="DG61" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="DH61" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="DI61" s="11">
+        <v>10000000</v>
+      </c>
+      <c r="DJ61" s="11">
+        <v>10000000</v>
+      </c>
+      <c r="DK61" s="11">
+        <v>10000000</v>
+      </c>
+      <c r="DL61" s="11">
+        <v>11111111111</v>
+      </c>
+      <c r="DM61" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="DN61" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="DO61" s="11">
+        <v>123</v>
+      </c>
+      <c r="DP61" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="DQ61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="DR61" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="DS61" s="11">
+        <v>11111111111</v>
+      </c>
+      <c r="DT61" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="DU61" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="DV61" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="DW61" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="DX61" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="DY61" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="DZ61" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="EA61" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="EB61" t="s">
+        <v>385</v>
+      </c>
+      <c r="EC61" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="ED61" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="EE61" s="11">
+        <v>2020</v>
+      </c>
+      <c r="EF61" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="EG61" s="11">
+        <v>1111111111</v>
+      </c>
+      <c r="EH61" s="11">
+        <v>1111111111</v>
+      </c>
+      <c r="EI61" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="EJ61" s="11">
+        <v>1111111111</v>
+      </c>
+      <c r="EK61" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="EL61" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="EM61" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="EN61" s="11">
+        <v>550000000</v>
+      </c>
+      <c r="EO61" s="11">
+        <v>55000000</v>
+      </c>
+      <c r="EP61" s="11">
+        <v>10</v>
+      </c>
+      <c r="EQ61" s="11">
+        <v>12</v>
+      </c>
+      <c r="ER61" s="11">
+        <v>6</v>
+      </c>
+      <c r="ES61" s="11">
+        <v>6</v>
+      </c>
+      <c r="ET61" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="EU61" s="11">
+        <v>100000</v>
+      </c>
+      <c r="EV61" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="EW61" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="EX61" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="EY61" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="EZ61" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="FA61" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="FB61" s="11">
+        <v>0</v>
+      </c>
+      <c r="FC61" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="FD61" s="11">
+        <v>0</v>
+      </c>
+      <c r="FE61" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="FF61" s="11">
+        <v>0</v>
+      </c>
+      <c r="FG61" s="11">
+        <v>1</v>
+      </c>
+      <c r="FH61" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="FI61" s="11">
+        <v>100000</v>
+      </c>
+      <c r="FJ61" s="11">
+        <v>10</v>
+      </c>
+      <c r="FK61" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="FL61" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="FM61" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="FN61" s="11">
+        <v>12</v>
+      </c>
+      <c r="FO61" s="11" t="s">
         <v>228</v>
       </c>
     </row>
@@ -25258,6 +31637,19 @@
     <hyperlink ref="Y46" r:id="rId14" xr:uid="{115CC30D-661D-470E-8B2A-2D8B37D36409}"/>
     <hyperlink ref="Y47" r:id="rId15" xr:uid="{789BE2AD-F858-4895-AD48-B9B761885893}"/>
     <hyperlink ref="Y48" r:id="rId16" xr:uid="{A88E47C3-A0CB-4F1E-BF37-CE58065E8518}"/>
+    <hyperlink ref="Y49" r:id="rId17" xr:uid="{E4ECE185-F82E-4E7E-B827-A4C063B00651}"/>
+    <hyperlink ref="Y50" r:id="rId18" xr:uid="{54DAEFE8-88AF-452A-B5EF-31C2A6A0D0B6}"/>
+    <hyperlink ref="Y52" r:id="rId19" xr:uid="{92B8ECBF-6F5B-4D4C-BF25-5756F0B7DF6E}"/>
+    <hyperlink ref="Y53" r:id="rId20" xr:uid="{146974E1-F873-4ABA-9BAE-1B8ADED32B45}"/>
+    <hyperlink ref="Y54" r:id="rId21" xr:uid="{6750A523-F537-4DA6-B893-E569AADFAB9B}"/>
+    <hyperlink ref="Y55" r:id="rId22" xr:uid="{9BCC370C-C9E7-4023-A638-A473619AEDA0}"/>
+    <hyperlink ref="Y56" r:id="rId23" xr:uid="{8B945949-821C-461D-8E99-30C165FF4DB5}"/>
+    <hyperlink ref="Y57" r:id="rId24" xr:uid="{9C1F7273-A907-42D5-8733-432A9B02839F}"/>
+    <hyperlink ref="Y58" r:id="rId25" xr:uid="{E3A595EB-5691-494C-A118-FB7BCF12BF60}"/>
+    <hyperlink ref="Y51" r:id="rId26" xr:uid="{389763CF-DD53-4129-AB5A-6396B52C037D}"/>
+    <hyperlink ref="Y59" r:id="rId27" xr:uid="{2F2EFB96-97FD-4EA6-83DC-474C45B630DC}"/>
+    <hyperlink ref="Y60" r:id="rId28" xr:uid="{8E1134A8-DB6A-490C-AE40-2D56DB2786E9}"/>
+    <hyperlink ref="Y61" r:id="rId29" xr:uid="{DB5E45B7-FC86-4944-BCCA-F6BA97525807}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
